--- a/obelix_ml_pipeline/data/ligand_representations/raw_data_processing/ligands_dft_nbd_model/clean_Rh_ligand_NBD_DFT_descriptors_v3.xlsx
+++ b/obelix_ml_pipeline/data/ligand_representations/raw_data_processing/ligands_dft_nbd_model/clean_Rh_ligand_NBD_DFT_descriptors_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avkalikadien\Documents\PhD\2021-2022\Janssen\obelix-ml-pipeline\obelix_ml_pipeline\data\ligand_representations\raw_data_processing\ligands_dft_nbd_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24BC10-59D0-4A82-9E46-ABE08272AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ABC496-76E4-4802-BFBC-A908A5D4CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6459,13 +6459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EP193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>191</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>202</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>213</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>223</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>233</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>264</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>274</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>284</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>305</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>314</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>324</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>335</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>356</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>366</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>376</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>386</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>396</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>406</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>416</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>426</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>437</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>447</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>457</v>
       </c>
@@ -17884,13 +17884,13 @@
         <v>150</v>
       </c>
       <c r="J32">
-        <v>4.2494912080000002</v>
+        <v>1.40402301355782</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M32">
         <v>111</v>
@@ -17899,7 +17899,7 @@
         <v>108</v>
       </c>
       <c r="O32">
-        <v>1.524650499</v>
+        <v>1.3849718144063401</v>
       </c>
       <c r="P32" t="s">
         <v>151</v>
@@ -17914,7 +17914,7 @@
         <v>107</v>
       </c>
       <c r="T32">
-        <v>61.917755</v>
+        <v>23.124890743615399</v>
       </c>
       <c r="U32" t="s">
         <v>150</v>
@@ -17938,10 +17938,10 @@
         <v>102</v>
       </c>
       <c r="AB32">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC32">
-        <v>-47.202822730000001</v>
+        <v>-0.44743215316303903</v>
       </c>
       <c r="AD32" t="s">
         <v>150</v>
@@ -17956,7 +17956,7 @@
         <v>152</v>
       </c>
       <c r="AH32">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AI32">
         <v>18</v>
@@ -17965,7 +17965,7 @@
         <v>102</v>
       </c>
       <c r="AK32">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AL32">
         <v>0.52271244900000002</v>
@@ -18178,7 +18178,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>467</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>476</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>485</v>
       </c>
@@ -19489,7 +19489,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="36" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>495</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>504</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="38" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>513</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>522</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>532</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>541</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="42" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>550</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="43" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>560</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>570</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="45" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>579</v>
       </c>
@@ -23859,7 +23859,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>588</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>597</v>
       </c>
@@ -24733,7 +24733,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="48" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>606</v>
       </c>
@@ -25170,7 +25170,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>615</v>
       </c>
@@ -25607,7 +25607,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="50" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>624</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>633</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="52" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>643</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="53" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>652</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>661</v>
       </c>
@@ -27795,7 +27795,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>671</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="56" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>680</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="57" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>690</v>
       </c>
@@ -29109,7 +29109,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>700</v>
       </c>
@@ -29525,7 +29525,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="59" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>712</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="60" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>723</v>
       </c>
@@ -30396,7 +30396,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="61" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>732</v>
       </c>
@@ -30833,7 +30833,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="62" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>743</v>
       </c>
@@ -31270,7 +31270,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="63" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>753</v>
       </c>
@@ -31635,7 +31635,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="64" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>761</v>
       </c>
@@ -32072,7 +32072,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="65" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>770</v>
       </c>
@@ -32512,7 +32512,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="66" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>780</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="67" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>790</v>
       </c>
@@ -33392,7 +33392,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="68" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>800</v>
       </c>
@@ -33832,7 +33832,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="69" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>810</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="70" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>820</v>
       </c>
@@ -34712,7 +34712,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="71" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>830</v>
       </c>
@@ -35149,7 +35149,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="72" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>839</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="73" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>849</v>
       </c>
@@ -35888,7 +35888,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="74" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>859</v>
       </c>
@@ -36304,7 +36304,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="75" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>869</v>
       </c>
@@ -36627,7 +36627,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="76" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>879</v>
       </c>
@@ -37064,7 +37064,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="77" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>888</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="78" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>897</v>
       </c>
@@ -37884,7 +37884,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="79" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>907</v>
       </c>
@@ -38324,7 +38324,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="80" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>917</v>
       </c>
@@ -38761,7 +38761,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="81" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>927</v>
       </c>
@@ -39201,7 +39201,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="82" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>937</v>
       </c>
@@ -39617,7 +39617,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="83" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>947</v>
       </c>
@@ -40057,7 +40057,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="84" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>957</v>
       </c>
@@ -40497,7 +40497,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="85" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>968</v>
       </c>
@@ -40937,7 +40937,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="86" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>978</v>
       </c>
@@ -41377,7 +41377,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="87" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>988</v>
       </c>
@@ -41817,7 +41817,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="88" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>999</v>
       </c>
@@ -42257,7 +42257,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="89" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>1009</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="90" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>1019</v>
       </c>
@@ -43134,7 +43134,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="91" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>1028</v>
       </c>
@@ -43568,7 +43568,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="92" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>1037</v>
       </c>
@@ -43999,7 +43999,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="93" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>1045</v>
       </c>
@@ -44430,7 +44430,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="94" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>1053</v>
       </c>
@@ -44861,7 +44861,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="95" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>1062</v>
       </c>
@@ -45292,7 +45292,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="96" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>1070</v>
       </c>
@@ -45732,7 +45732,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="97" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>1080</v>
       </c>
@@ -46163,7 +46163,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="98" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>1088</v>
       </c>
@@ -46600,7 +46600,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="99" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>1097</v>
       </c>
@@ -47040,7 +47040,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="100" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>1107</v>
       </c>
@@ -47360,7 +47360,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="101" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>1117</v>
       </c>
@@ -47794,7 +47794,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="102" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>1127</v>
       </c>
@@ -48222,7 +48222,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="103" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>1138</v>
       </c>
@@ -48659,7 +48659,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="104" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>1148</v>
       </c>
@@ -49096,7 +49096,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="105" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>1159</v>
       </c>
@@ -49533,7 +49533,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="106" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>1169</v>
       </c>
@@ -49853,7 +49853,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="107" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>1180</v>
       </c>
@@ -50290,7 +50290,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="108" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>1189</v>
       </c>
@@ -50706,7 +50706,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="109" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>1199</v>
       </c>
@@ -51146,7 +51146,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="110" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>1209</v>
       </c>
@@ -51586,7 +51586,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="111" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>1219</v>
       </c>
@@ -52026,7 +52026,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="112" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>1230</v>
       </c>
@@ -52466,7 +52466,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="113" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>1241</v>
       </c>
@@ -52792,7 +52792,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="114" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>1251</v>
       </c>
@@ -53232,7 +53232,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="115" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>1261</v>
       </c>
@@ -53552,7 +53552,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="116" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>1268</v>
       </c>
@@ -53872,7 +53872,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="117" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>1279</v>
       </c>
@@ -54303,7 +54303,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="118" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>1290</v>
       </c>
@@ -54740,7 +54740,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="119" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>1299</v>
       </c>
@@ -55177,7 +55177,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="120" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>1308</v>
       </c>
@@ -55617,7 +55617,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="121" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>1318</v>
       </c>
@@ -56054,7 +56054,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="122" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>1327</v>
       </c>
@@ -56494,7 +56494,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="123" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>1337</v>
       </c>
@@ -56931,7 +56931,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="124" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>1346</v>
       </c>
@@ -57368,7 +57368,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="125" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>1356</v>
       </c>
@@ -57790,7 +57790,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="126" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>1366</v>
       </c>
@@ -58227,7 +58227,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="127" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>1375</v>
       </c>
@@ -58667,7 +58667,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="128" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>1385</v>
       </c>
@@ -59083,7 +59083,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="129" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>1395</v>
       </c>
@@ -59520,7 +59520,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="130" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>1405</v>
       </c>
@@ -59957,7 +59957,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="131" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>1414</v>
       </c>
@@ -60394,7 +60394,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="132" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>1423</v>
       </c>
@@ -60834,7 +60834,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="133" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>1433</v>
       </c>
@@ -61253,7 +61253,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="134" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>1443</v>
       </c>
@@ -61690,7 +61690,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="135" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>1452</v>
       </c>
@@ -62127,7 +62127,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="136" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>1461</v>
       </c>
@@ -62564,7 +62564,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="137" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>1470</v>
       </c>
@@ -63001,7 +63001,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="138" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>1480</v>
       </c>
@@ -63438,7 +63438,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="139" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>1490</v>
       </c>
@@ -63878,7 +63878,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="140" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>1501</v>
       </c>
@@ -64315,7 +64315,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="141" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>1510</v>
       </c>
@@ -64632,7 +64632,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="142" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>1520</v>
       </c>
@@ -64955,7 +64955,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="143" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>1530</v>
       </c>
@@ -65395,7 +65395,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="144" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>1540</v>
       </c>
@@ -65835,7 +65835,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="145" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>1550</v>
       </c>
@@ -66158,7 +66158,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="146" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>1559</v>
       </c>
@@ -66595,7 +66595,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="147" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>1568</v>
       </c>
@@ -67008,7 +67008,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="148" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>1577</v>
       </c>
@@ -67445,7 +67445,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="149" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>1586</v>
       </c>
@@ -67882,7 +67882,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="150" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>1595</v>
       </c>
@@ -68319,7 +68319,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="151" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>1604</v>
       </c>
@@ -68732,7 +68732,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="152" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>1616</v>
       </c>
@@ -69052,7 +69052,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="153" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>1626</v>
       </c>
@@ -69375,7 +69375,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="154" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>1636</v>
       </c>
@@ -69815,7 +69815,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="155" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>1645</v>
       </c>
@@ -70138,7 +70138,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="156" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>1655</v>
       </c>
@@ -70464,7 +70464,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="157" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>1664</v>
       </c>
@@ -70784,7 +70784,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="158" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>1673</v>
       </c>
@@ -71221,7 +71221,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="159" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>1682</v>
       </c>
@@ -71631,7 +71631,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="160" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>1693</v>
       </c>
@@ -72068,7 +72068,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="161" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>1702</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="162" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>1709</v>
       </c>
@@ -72921,7 +72921,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="163" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>1719</v>
       </c>
@@ -73337,7 +73337,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="164" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>1729</v>
       </c>
@@ -73777,7 +73777,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="165" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>1739</v>
       </c>
@@ -74199,7 +74199,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="166" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>1748</v>
       </c>
@@ -74636,7 +74636,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="167" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>1757</v>
       </c>
@@ -75052,7 +75052,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="168" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>1767</v>
       </c>
@@ -75492,7 +75492,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="169" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>1777</v>
       </c>
@@ -75932,7 +75932,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="170" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>1788</v>
       </c>
@@ -76372,7 +76372,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="171" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>1799</v>
       </c>
@@ -76809,7 +76809,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="172" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>1809</v>
       </c>
@@ -77249,7 +77249,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="173" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>1819</v>
       </c>
@@ -77689,7 +77689,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="174" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>1830</v>
       </c>
@@ -78105,7 +78105,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="175" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>1840</v>
       </c>
@@ -78428,7 +78428,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="176" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>1849</v>
       </c>
@@ -78748,7 +78748,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="177" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>1858</v>
       </c>
@@ -79068,7 +79068,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="178" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>1867</v>
       </c>
@@ -79502,7 +79502,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="179" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>1876</v>
       </c>
@@ -79939,7 +79939,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="180" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>1885</v>
       </c>
@@ -80352,7 +80352,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="181" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>1894</v>
       </c>
@@ -80678,7 +80678,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="182" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>1904</v>
       </c>
@@ -81004,7 +81004,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="183" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>1914</v>
       </c>
@@ -81330,7 +81330,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="184" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>1925</v>
       </c>
@@ -81770,7 +81770,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="185" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>1935</v>
       </c>
@@ -82186,7 +82186,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="186" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>1946</v>
       </c>
@@ -82599,7 +82599,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="187" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>1957</v>
       </c>
@@ -83039,7 +83039,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="188" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>1967</v>
       </c>
@@ -83476,7 +83476,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="189" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>1976</v>
       </c>
@@ -83802,7 +83802,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="190" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>1986</v>
       </c>
@@ -84242,7 +84242,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="191" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>1996</v>
       </c>
@@ -84682,7 +84682,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="192" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>2006</v>
       </c>
@@ -85116,7 +85116,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="193" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:146" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
         <v>2015</v>
       </c>

--- a/obelix_ml_pipeline/data/ligand_representations/raw_data_processing/ligands_dft_nbd_model/clean_Rh_ligand_NBD_DFT_descriptors_v3.xlsx
+++ b/obelix_ml_pipeline/data/ligand_representations/raw_data_processing/ligands_dft_nbd_model/clean_Rh_ligand_NBD_DFT_descriptors_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avkalikadien\Documents\PhD\2021-2022\Janssen\obelix-ml-pipeline\obelix_ml_pipeline\data\ligand_representations\raw_data_processing\ligands_dft_nbd_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ABC496-76E4-4802-BFBC-A908A5D4CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770F35E2-CD05-4299-92F6-68590C2B5895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6459,13 +6459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EP193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
+      <selection activeCell="DV4" sqref="DV4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
@@ -7156,13 +7156,13 @@
         <v>-4.6385371109999998</v>
       </c>
       <c r="DR2">
-        <v>-0.38116</v>
+        <v>-0.26171</v>
       </c>
       <c r="DS2">
-        <v>1.18187</v>
+        <v>1.0802400000000001</v>
       </c>
       <c r="DT2">
-        <v>1.24356</v>
+        <v>1.13466</v>
       </c>
       <c r="DU2">
         <v>-0.50782899999999997</v>
@@ -7231,7 +7231,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>162</v>
       </c>
@@ -7482,13 +7482,13 @@
         <v>-4.4192152140000003</v>
       </c>
       <c r="DR3">
-        <v>-0.23047000000000001</v>
+        <v>-0.26093</v>
       </c>
       <c r="DS3">
-        <v>1.08891</v>
+        <v>1.13839</v>
       </c>
       <c r="DT3">
-        <v>1.07866</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="DU3">
         <v>-0.61386700000000005</v>
@@ -7554,7 +7554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -7805,13 +7805,13 @@
         <v>-5.1560509730000001</v>
       </c>
       <c r="DR4">
-        <v>-0.36048000000000002</v>
+        <v>-0.27578000000000003</v>
       </c>
       <c r="DS4">
-        <v>1.107</v>
+        <v>1.0670900000000001</v>
       </c>
       <c r="DT4">
-        <v>1.0872200000000001</v>
+        <v>1.06216</v>
       </c>
       <c r="DU4">
         <v>-0.698187</v>
@@ -7880,7 +7880,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -8131,13 +8131,13 @@
         <v>-4.6771956509999999</v>
       </c>
       <c r="DR5">
-        <v>-0.39967000000000003</v>
+        <v>-0.26647999999999999</v>
       </c>
       <c r="DS5">
-        <v>1.2083999999999999</v>
+        <v>1.1325700000000001</v>
       </c>
       <c r="DT5">
-        <v>1.2373400000000001</v>
+        <v>1.0805499999999999</v>
       </c>
       <c r="DU5">
         <v>-0.468358</v>
@@ -8206,7 +8206,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>191</v>
       </c>
@@ -8457,13 +8457,13 @@
         <v>-4.8417852889999997</v>
       </c>
       <c r="DR6">
-        <v>-0.39632000000000001</v>
+        <v>-0.28692000000000001</v>
       </c>
       <c r="DS6">
-        <v>1.2069300000000001</v>
+        <v>1.11039</v>
       </c>
       <c r="DT6">
-        <v>1.23722</v>
+        <v>1.1470100000000001</v>
       </c>
       <c r="DU6">
         <v>-0.50407400000000002</v>
@@ -8532,7 +8532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>202</v>
       </c>
@@ -8783,13 +8783,13 @@
         <v>-5.2373542789999998</v>
       </c>
       <c r="DR7">
-        <v>-0.39383000000000001</v>
+        <v>-0.30202000000000001</v>
       </c>
       <c r="DS7">
-        <v>1.15673</v>
+        <v>1.09978</v>
       </c>
       <c r="DT7">
-        <v>1.2244200000000001</v>
+        <v>1.09562</v>
       </c>
       <c r="DU7">
         <v>-0.58150599999999997</v>
@@ -8858,7 +8858,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>213</v>
       </c>
@@ -9109,13 +9109,13 @@
         <v>-5.4188958830000002</v>
       </c>
       <c r="DR8">
-        <v>-0.34926000000000001</v>
+        <v>-0.30142000000000002</v>
       </c>
       <c r="DS8">
-        <v>1.15306</v>
+        <v>1.1433199999999999</v>
       </c>
       <c r="DT8">
-        <v>1.09172</v>
+        <v>1.07605</v>
       </c>
       <c r="DU8">
         <v>-0.65921200000000002</v>
@@ -9184,7 +9184,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>223</v>
       </c>
@@ -9435,13 +9435,13 @@
         <v>-5.2423780559999997</v>
       </c>
       <c r="DR9">
-        <v>-0.35015000000000002</v>
+        <v>-0.28902</v>
       </c>
       <c r="DS9">
-        <v>1.10544</v>
+        <v>1.1094900000000001</v>
       </c>
       <c r="DT9">
-        <v>1.2075100000000001</v>
+        <v>1.14588</v>
       </c>
       <c r="DU9">
         <v>-0.48899799999999999</v>
@@ -9510,7 +9510,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>233</v>
       </c>
@@ -9758,13 +9758,13 @@
         <v>-4.6846033489999996</v>
       </c>
       <c r="DR10">
-        <v>-0.40571000000000002</v>
+        <v>-0.20755000000000001</v>
       </c>
       <c r="DS10">
-        <v>1.2522899999999999</v>
+        <v>1.0237400000000001</v>
       </c>
       <c r="DT10">
-        <v>1.2153400000000001</v>
+        <v>1.06633</v>
       </c>
       <c r="DU10">
         <v>-0.55632800000000004</v>
@@ -9833,7 +9833,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
@@ -10084,13 +10084,13 @@
         <v>-4.6120692249999999</v>
       </c>
       <c r="DR11">
-        <v>-0.34588999999999998</v>
+        <v>-0.25857999999999998</v>
       </c>
       <c r="DS11">
-        <v>1.1400699999999999</v>
+        <v>1.13707</v>
       </c>
       <c r="DT11">
-        <v>1.1775199999999999</v>
+        <v>1.0345</v>
       </c>
       <c r="DU11">
         <v>-0.54384500000000002</v>
@@ -10159,7 +10159,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
@@ -10410,13 +10410,13 @@
         <v>-4.8418302229999997</v>
       </c>
       <c r="DR12">
-        <v>-0.40278000000000003</v>
+        <v>-0.28693999999999997</v>
       </c>
       <c r="DS12">
-        <v>1.2063200000000001</v>
+        <v>1.1104499999999999</v>
       </c>
       <c r="DT12">
-        <v>1.2377499999999999</v>
+        <v>1.1469199999999999</v>
       </c>
       <c r="DU12">
         <v>-0.50422699999999998</v>
@@ -10485,7 +10485,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>264</v>
       </c>
@@ -10736,13 +10736,13 @@
         <v>-4.0027147689999998</v>
       </c>
       <c r="DR13">
-        <v>-0.34727000000000002</v>
+        <v>-0.27302999999999999</v>
       </c>
       <c r="DS13">
-        <v>1.04695</v>
+        <v>1.0894999999999999</v>
       </c>
       <c r="DT13">
-        <v>1.18231</v>
+        <v>1.06427</v>
       </c>
       <c r="DU13">
         <v>-0.53893500000000005</v>
@@ -10811,7 +10811,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>274</v>
       </c>
@@ -11062,13 +11062,13 @@
         <v>-5.6270931510000004</v>
       </c>
       <c r="DR14">
-        <v>-0.33263999999999999</v>
+        <v>-0.30665999999999999</v>
       </c>
       <c r="DS14">
-        <v>1.0906899999999999</v>
+        <v>1.0672900000000001</v>
       </c>
       <c r="DT14">
-        <v>1.18964</v>
+        <v>1.1561600000000001</v>
       </c>
       <c r="DU14">
         <v>-0.65359800000000001</v>
@@ -11137,7 +11137,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>284</v>
       </c>
@@ -11388,13 +11388,13 @@
         <v>-5.3883034289999996</v>
       </c>
       <c r="DR15">
-        <v>-0.33345000000000002</v>
+        <v>-0.27795999999999998</v>
       </c>
       <c r="DS15">
-        <v>1.1474200000000001</v>
+        <v>1.1211100000000001</v>
       </c>
       <c r="DT15">
-        <v>1.1786799999999999</v>
+        <v>1.14581</v>
       </c>
       <c r="DU15">
         <v>-0.47755700000000001</v>
@@ -11463,7 +11463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -11714,13 +11714,13 @@
         <v>-4.2828895349999998</v>
       </c>
       <c r="DR16">
-        <v>-0.29742000000000002</v>
+        <v>-0.27895999999999999</v>
       </c>
       <c r="DS16">
-        <v>1.07511</v>
+        <v>1.0907899999999999</v>
       </c>
       <c r="DT16">
-        <v>1.1783699999999999</v>
+        <v>1.1138699999999999</v>
       </c>
       <c r="DU16">
         <v>-0.472304</v>
@@ -11789,7 +11789,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>305</v>
       </c>
@@ -12037,13 +12037,13 @@
         <v>-4.3982444960000002</v>
       </c>
       <c r="DR17">
-        <v>-0.26163999999999998</v>
+        <v>-0.25825999999999999</v>
       </c>
       <c r="DS17">
-        <v>1.11426</v>
+        <v>1.1394200000000001</v>
       </c>
       <c r="DT17">
-        <v>1.1376599999999999</v>
+        <v>1.03538</v>
       </c>
       <c r="DU17">
         <v>-0.54711100000000001</v>
@@ -12112,7 +12112,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>314</v>
       </c>
@@ -12477,13 +12477,13 @@
         <v>-5.256909319</v>
       </c>
       <c r="DR18">
-        <v>-0.26915</v>
+        <v>-0.25785000000000002</v>
       </c>
       <c r="DS18">
-        <v>1.26196</v>
+        <v>1.3182199999999999</v>
       </c>
       <c r="DT18">
-        <v>1.2219599999999999</v>
+        <v>1.27017</v>
       </c>
       <c r="DU18">
         <v>-0.59774400000000005</v>
@@ -12549,7 +12549,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>324</v>
       </c>
@@ -12800,13 +12800,13 @@
         <v>-4.7646941829999996</v>
       </c>
       <c r="DR19">
-        <v>-0.34066000000000002</v>
+        <v>-0.24784</v>
       </c>
       <c r="DS19">
-        <v>1.1773499999999999</v>
+        <v>1.12835</v>
       </c>
       <c r="DT19">
-        <v>1.1001799999999999</v>
+        <v>1.01833</v>
       </c>
       <c r="DU19">
         <v>-0.56455999999999995</v>
@@ -12875,7 +12875,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>335</v>
       </c>
@@ -13123,13 +13123,13 @@
         <v>-5.9750330629999997</v>
       </c>
       <c r="DR20">
-        <v>-0.19428999999999999</v>
+        <v>-0.15303</v>
       </c>
       <c r="DS20">
-        <v>1.16587</v>
+        <v>1.0096400000000001</v>
       </c>
       <c r="DT20">
-        <v>1.0188699999999999</v>
+        <v>1.02505</v>
       </c>
       <c r="DU20">
         <v>-0.34693499999999999</v>
@@ -13195,7 +13195,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -13560,13 +13560,13 @@
         <v>-6.4641007610000001</v>
       </c>
       <c r="DR21">
-        <v>-0.43067</v>
+        <v>-0.28988000000000003</v>
       </c>
       <c r="DS21">
-        <v>1.2571000000000001</v>
+        <v>1.12388</v>
       </c>
       <c r="DT21">
-        <v>1.2238800000000001</v>
+        <v>1.11435</v>
       </c>
       <c r="DU21">
         <v>-0.568828</v>
@@ -13635,7 +13635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>356</v>
       </c>
@@ -14000,13 +14000,13 @@
         <v>-7.8167360090000004</v>
       </c>
       <c r="DR22">
-        <v>-0.35393999999999998</v>
+        <v>-0.31441000000000002</v>
       </c>
       <c r="DS22">
-        <v>1.1647000000000001</v>
+        <v>1.1051800000000001</v>
       </c>
       <c r="DT22">
-        <v>1.1537200000000001</v>
+        <v>1.11574</v>
       </c>
       <c r="DU22">
         <v>-0.808813</v>
@@ -14075,7 +14075,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>366</v>
       </c>
@@ -14380,13 +14380,13 @@
         <v>-8.0634478200000004</v>
       </c>
       <c r="DR23">
-        <v>-0.17530000000000001</v>
+        <v>-0.28622999999999998</v>
       </c>
       <c r="DS23">
-        <v>1.0538799999999999</v>
+        <v>1.1260600000000001</v>
       </c>
       <c r="DT23">
-        <v>1.07338</v>
+        <v>1.11842</v>
       </c>
       <c r="DU23">
         <v>-0.59506099999999995</v>
@@ -14455,7 +14455,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>376</v>
       </c>
@@ -14820,13 +14820,13 @@
         <v>-7.5419652230000001</v>
       </c>
       <c r="DR24">
-        <v>-0.27811999999999998</v>
+        <v>-0.26066</v>
       </c>
       <c r="DS24">
-        <v>1.1554899999999999</v>
+        <v>1.0827500000000001</v>
       </c>
       <c r="DT24">
-        <v>1.0938000000000001</v>
+        <v>1.13079</v>
       </c>
       <c r="DU24">
         <v>-0.63970400000000005</v>
@@ -14895,7 +14895,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>386</v>
       </c>
@@ -15146,13 +15146,13 @@
         <v>-5.4338399380000002</v>
       </c>
       <c r="DR25">
-        <v>-0.15078</v>
+        <v>-0.26524999999999999</v>
       </c>
       <c r="DS25">
-        <v>1.163</v>
+        <v>1.0720799999999999</v>
       </c>
       <c r="DT25">
-        <v>1.0150999999999999</v>
+        <v>1.1252800000000001</v>
       </c>
       <c r="DU25">
         <v>-0.59567800000000004</v>
@@ -15218,7 +15218,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="26" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>396</v>
       </c>
@@ -15583,13 +15583,13 @@
         <v>-5.6058610509999998</v>
       </c>
       <c r="DR26">
-        <v>-0.34993000000000002</v>
+        <v>-0.23530999999999999</v>
       </c>
       <c r="DS26">
-        <v>1.24369</v>
+        <v>1.09307</v>
       </c>
       <c r="DT26">
-        <v>1.0131399999999999</v>
+        <v>1.0864</v>
       </c>
       <c r="DU26">
         <v>-0.50641199999999997</v>
@@ -15658,7 +15658,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>406</v>
       </c>
@@ -16023,13 +16023,13 @@
         <v>-5.0574948089999996</v>
       </c>
       <c r="DR27">
-        <v>-0.34338999999999997</v>
+        <v>-0.21945999999999999</v>
       </c>
       <c r="DS27">
-        <v>1.2258199999999999</v>
+        <v>1.08609</v>
       </c>
       <c r="DT27">
-        <v>1.0354099999999999</v>
+        <v>1.0840700000000001</v>
       </c>
       <c r="DU27">
         <v>-0.487294</v>
@@ -16098,7 +16098,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>416</v>
       </c>
@@ -16463,13 +16463,13 @@
         <v>-5.3677728230000001</v>
       </c>
       <c r="DR28">
-        <v>-0.33179999999999998</v>
+        <v>-0.20071</v>
       </c>
       <c r="DS28">
-        <v>1.2083900000000001</v>
+        <v>1.0652600000000001</v>
       </c>
       <c r="DT28">
-        <v>0.96611999999999998</v>
+        <v>1.0332300000000001</v>
       </c>
       <c r="DU28">
         <v>-0.61898299999999995</v>
@@ -16538,7 +16538,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>426</v>
       </c>
@@ -16900,13 +16900,13 @@
         <v>-6.1748523339999997</v>
       </c>
       <c r="DR29">
-        <v>-0.36525000000000002</v>
+        <v>-0.28703000000000001</v>
       </c>
       <c r="DS29">
-        <v>1.0167299999999999</v>
+        <v>1.07656</v>
       </c>
       <c r="DT29">
-        <v>1.2411000000000001</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="DU29">
         <v>-0.71118899999999996</v>
@@ -16975,7 +16975,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>437</v>
       </c>
@@ -17340,13 +17340,13 @@
         <v>-5.8481365380000003</v>
       </c>
       <c r="DR30">
-        <v>-0.34093000000000001</v>
+        <v>-0.24424000000000001</v>
       </c>
       <c r="DS30">
-        <v>1.1812400000000001</v>
+        <v>1.0976999999999999</v>
       </c>
       <c r="DT30">
-        <v>1.02064</v>
+        <v>1.0455300000000001</v>
       </c>
       <c r="DU30">
         <v>-0.50031400000000004</v>
@@ -17415,7 +17415,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>447</v>
       </c>
@@ -17780,13 +17780,13 @@
         <v>-5.8239096760000004</v>
       </c>
       <c r="DR31">
-        <v>-0.2964</v>
+        <v>-0.25502999999999998</v>
       </c>
       <c r="DS31">
-        <v>1.2115</v>
+        <v>1.1170599999999999</v>
       </c>
       <c r="DT31">
-        <v>1.03179</v>
+        <v>1.0670599999999999</v>
       </c>
       <c r="DU31">
         <v>-0.53153300000000003</v>
@@ -17855,7 +17855,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>457</v>
       </c>
@@ -18106,13 +18106,13 @@
         <v>-5.6976906380000001</v>
       </c>
       <c r="DR32">
-        <v>-0.28617999999999999</v>
+        <v>-0.19502</v>
       </c>
       <c r="DS32">
-        <v>1.1828399999999999</v>
+        <v>1.0483499999999999</v>
       </c>
       <c r="DT32">
-        <v>1.19208</v>
+        <v>1.15628</v>
       </c>
       <c r="DU32">
         <v>-0.50235099999999999</v>
@@ -18178,7 +18178,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>467</v>
       </c>
@@ -18543,13 +18543,13 @@
         <v>-5.1253675029999997</v>
       </c>
       <c r="DR33">
-        <v>-0.28188000000000002</v>
+        <v>-0.28659000000000001</v>
       </c>
       <c r="DS33">
-        <v>1.0866899999999999</v>
+        <v>1.11253</v>
       </c>
       <c r="DT33">
-        <v>1.08674</v>
+        <v>1.11212</v>
       </c>
       <c r="DU33">
         <v>-0.54173099999999996</v>
@@ -18615,7 +18615,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>476</v>
       </c>
@@ -18980,13 +18980,13 @@
         <v>-6.0953364360000002</v>
       </c>
       <c r="DR34">
-        <v>-0.28688000000000002</v>
+        <v>-0.31598999999999999</v>
       </c>
       <c r="DS34">
-        <v>1.087</v>
+        <v>1.11982</v>
       </c>
       <c r="DT34">
-        <v>1.0887500000000001</v>
+        <v>1.11999</v>
       </c>
       <c r="DU34">
         <v>-0.58387100000000003</v>
@@ -19052,7 +19052,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>485</v>
       </c>
@@ -19417,13 +19417,13 @@
         <v>-5.5157852390000004</v>
       </c>
       <c r="DR35">
-        <v>-0.40699999999999997</v>
+        <v>-0.28406999999999999</v>
       </c>
       <c r="DS35">
-        <v>1.21895</v>
+        <v>1.11511</v>
       </c>
       <c r="DT35">
-        <v>1.21896</v>
+        <v>1.11415</v>
       </c>
       <c r="DU35">
         <v>-0.53632299999999999</v>
@@ -19489,7 +19489,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="36" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>495</v>
       </c>
@@ -19854,13 +19854,13 @@
         <v>-6.0246224269999997</v>
       </c>
       <c r="DR36">
-        <v>-0.28127000000000002</v>
+        <v>-0.28377000000000002</v>
       </c>
       <c r="DS36">
-        <v>1.091</v>
+        <v>1.1155999999999999</v>
       </c>
       <c r="DT36">
-        <v>1.0909599999999999</v>
+        <v>1.1156699999999999</v>
       </c>
       <c r="DU36">
         <v>-0.52183299999999999</v>
@@ -19926,7 +19926,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>504</v>
       </c>
@@ -20291,13 +20291,13 @@
         <v>-5.2680535380000002</v>
       </c>
       <c r="DR37">
-        <v>-0.28593000000000002</v>
+        <v>-0.29125000000000001</v>
       </c>
       <c r="DS37">
-        <v>1.08466</v>
+        <v>1.1123099999999999</v>
       </c>
       <c r="DT37">
-        <v>1.08467</v>
+        <v>1.1142099999999999</v>
       </c>
       <c r="DU37">
         <v>-0.53840500000000002</v>
@@ -20363,7 +20363,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="38" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>513</v>
       </c>
@@ -20728,13 +20728,13 @@
         <v>-4.601110909</v>
       </c>
       <c r="DR38">
-        <v>-0.28928999999999999</v>
+        <v>-0.28653000000000001</v>
       </c>
       <c r="DS38">
-        <v>1.09012</v>
+        <v>1.1165799999999999</v>
       </c>
       <c r="DT38">
-        <v>1.0903099999999999</v>
+        <v>1.1164799999999999</v>
       </c>
       <c r="DU38">
         <v>-0.53685899999999998</v>
@@ -20800,7 +20800,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="39" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>522</v>
       </c>
@@ -21165,13 +21165,13 @@
         <v>-5.4608621380000004</v>
       </c>
       <c r="DR39">
-        <v>-0.42619000000000001</v>
+        <v>-0.28738000000000002</v>
       </c>
       <c r="DS39">
-        <v>1.20764</v>
+        <v>1.12025</v>
       </c>
       <c r="DT39">
-        <v>1.2076800000000001</v>
+        <v>1.1201700000000001</v>
       </c>
       <c r="DU39">
         <v>-0.54149000000000003</v>
@@ -21237,7 +21237,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="40" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>532</v>
       </c>
@@ -21602,13 +21602,13 @@
         <v>-9.3749274400000004</v>
       </c>
       <c r="DR40">
-        <v>-0.25078</v>
+        <v>-0.29912</v>
       </c>
       <c r="DS40">
-        <v>1.0791500000000001</v>
+        <v>1.1233299999999999</v>
       </c>
       <c r="DT40">
-        <v>1.0908500000000001</v>
+        <v>1.1279699999999999</v>
       </c>
       <c r="DU40">
         <v>-0.71477100000000005</v>
@@ -21674,7 +21674,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>541</v>
       </c>
@@ -22039,13 +22039,13 @@
         <v>-4.8609455219999997</v>
       </c>
       <c r="DR41">
-        <v>-0.28044000000000002</v>
+        <v>-0.29353000000000001</v>
       </c>
       <c r="DS41">
-        <v>1.0779799999999999</v>
+        <v>1.1071800000000001</v>
       </c>
       <c r="DT41">
-        <v>1.08815</v>
+        <v>1.1192200000000001</v>
       </c>
       <c r="DU41">
         <v>-0.53857500000000003</v>
@@ -22111,7 +22111,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="42" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>550</v>
       </c>
@@ -22476,13 +22476,13 @@
         <v>-9.4155699510000002</v>
       </c>
       <c r="DR42">
-        <v>-0.23877000000000001</v>
+        <v>-0.29443000000000003</v>
       </c>
       <c r="DS42">
-        <v>1.0811599999999999</v>
+        <v>1.1262099999999999</v>
       </c>
       <c r="DT42">
-        <v>1.1336599999999999</v>
+        <v>1.1247100000000001</v>
       </c>
       <c r="DU42">
         <v>-0.69451499999999999</v>
@@ -22548,7 +22548,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="43" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>560</v>
       </c>
@@ -22913,13 +22913,13 @@
         <v>-5.5078583070000002</v>
       </c>
       <c r="DR43">
-        <v>-0.25816</v>
+        <v>-0.25783</v>
       </c>
       <c r="DS43">
-        <v>1.1038699999999999</v>
+        <v>1.1031500000000001</v>
       </c>
       <c r="DT43">
-        <v>1.10558</v>
+        <v>1.10547</v>
       </c>
       <c r="DU43">
         <v>-0.47940300000000002</v>
@@ -22985,7 +22985,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>570</v>
       </c>
@@ -23350,13 +23350,13 @@
         <v>-8.8609362919999999</v>
       </c>
       <c r="DR44">
-        <v>-0.26766000000000001</v>
+        <v>-0.26455000000000001</v>
       </c>
       <c r="DS44">
-        <v>1.0869899999999999</v>
+        <v>1.1092500000000001</v>
       </c>
       <c r="DT44">
-        <v>1.0888599999999999</v>
+        <v>1.10653</v>
       </c>
       <c r="DU44">
         <v>-0.49290699999999998</v>
@@ -23422,7 +23422,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="45" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>579</v>
       </c>
@@ -23787,13 +23787,13 @@
         <v>-3.7829666419999999</v>
       </c>
       <c r="DR45">
-        <v>-0.24975</v>
+        <v>-0.22467000000000001</v>
       </c>
       <c r="DS45">
-        <v>1.0273099999999999</v>
+        <v>1.05471</v>
       </c>
       <c r="DT45">
-        <v>1.0198499999999999</v>
+        <v>1.0556399999999999</v>
       </c>
       <c r="DU45">
         <v>-0.35886200000000001</v>
@@ -23859,7 +23859,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>588</v>
       </c>
@@ -24224,13 +24224,13 @@
         <v>-9.4397157719999996</v>
       </c>
       <c r="DR46">
-        <v>-0.28770000000000001</v>
+        <v>-0.29933999999999999</v>
       </c>
       <c r="DS46">
-        <v>1.08195</v>
+        <v>1.1258600000000001</v>
       </c>
       <c r="DT46">
-        <v>1.0861099999999999</v>
+        <v>1.12114</v>
       </c>
       <c r="DU46">
         <v>-0.73343100000000006</v>
@@ -24296,7 +24296,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>597</v>
       </c>
@@ -24661,13 +24661,13 @@
         <v>-8.5062588600000009</v>
       </c>
       <c r="DR47">
-        <v>-0.28453000000000001</v>
+        <v>-0.29531000000000002</v>
       </c>
       <c r="DS47">
-        <v>1.08962</v>
+        <v>1.1192899999999999</v>
       </c>
       <c r="DT47">
-        <v>1.0875699999999999</v>
+        <v>1.1191</v>
       </c>
       <c r="DU47">
         <v>-0.72077800000000003</v>
@@ -24733,7 +24733,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="48" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>606</v>
       </c>
@@ -25098,13 +25098,13 @@
         <v>-6.4706350830000003</v>
       </c>
       <c r="DR48">
-        <v>-0.27810000000000001</v>
+        <v>-0.26099</v>
       </c>
       <c r="DS48">
-        <v>1.0892200000000001</v>
+        <v>1.1024099999999999</v>
       </c>
       <c r="DT48">
-        <v>1.0931200000000001</v>
+        <v>1.1137699999999999</v>
       </c>
       <c r="DU48">
         <v>-0.51666400000000001</v>
@@ -25170,7 +25170,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>615</v>
       </c>
@@ -25535,13 +25535,13 @@
         <v>-4.9674691690000001</v>
       </c>
       <c r="DR49">
-        <v>-0.26604</v>
+        <v>-0.23127</v>
       </c>
       <c r="DS49">
-        <v>1.0679099999999999</v>
+        <v>1.08446</v>
       </c>
       <c r="DT49">
-        <v>1.07101</v>
+        <v>1.0865</v>
       </c>
       <c r="DU49">
         <v>-0.44424599999999997</v>
@@ -25607,7 +25607,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="50" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>624</v>
       </c>
@@ -25972,13 +25972,13 @@
         <v>-5.8067579370000004</v>
       </c>
       <c r="DR50">
-        <v>-0.25674000000000002</v>
+        <v>-0.22978000000000001</v>
       </c>
       <c r="DS50">
-        <v>1.0857600000000001</v>
+        <v>1.0877300000000001</v>
       </c>
       <c r="DT50">
-        <v>1.0860099999999999</v>
+        <v>1.08833</v>
       </c>
       <c r="DU50">
         <v>-0.46152799999999999</v>
@@ -26044,7 +26044,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>633</v>
       </c>
@@ -26409,13 +26409,13 @@
         <v>-9.7545224239999992</v>
       </c>
       <c r="DR51">
-        <v>-0.39843000000000001</v>
+        <v>-0.27416000000000001</v>
       </c>
       <c r="DS51">
-        <v>1.2151400000000001</v>
+        <v>1.1189100000000001</v>
       </c>
       <c r="DT51">
-        <v>1.2298199999999999</v>
+        <v>1.11622</v>
       </c>
       <c r="DU51">
         <v>-0.54932000000000003</v>
@@ -26481,7 +26481,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="52" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>643</v>
       </c>
@@ -26846,13 +26846,13 @@
         <v>-3.930067405</v>
       </c>
       <c r="DR52">
-        <v>-0.26014999999999999</v>
+        <v>-0.2364</v>
       </c>
       <c r="DS52">
-        <v>1.0564499999999999</v>
+        <v>1.0352600000000001</v>
       </c>
       <c r="DT52">
-        <v>1.0506500000000001</v>
+        <v>1.08003</v>
       </c>
       <c r="DU52">
         <v>-0.48752800000000002</v>
@@ -26918,7 +26918,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="53" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>652</v>
       </c>
@@ -27283,13 +27283,13 @@
         <v>-4.7011062350000001</v>
       </c>
       <c r="DR53">
-        <v>-0.28222000000000003</v>
+        <v>-0.28759000000000001</v>
       </c>
       <c r="DS53">
-        <v>1.0875699999999999</v>
+        <v>1.1143099999999999</v>
       </c>
       <c r="DT53">
-        <v>1.0873299999999999</v>
+        <v>1.1137900000000001</v>
       </c>
       <c r="DU53">
         <v>-0.54402499999999998</v>
@@ -27355,7 +27355,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>661</v>
       </c>
@@ -27720,13 +27720,13 @@
         <v>-3.4990447859999998</v>
       </c>
       <c r="DR54">
-        <v>-0.29660999999999998</v>
+        <v>-0.29471999999999998</v>
       </c>
       <c r="DS54">
-        <v>1.04549</v>
+        <v>1.0270699999999999</v>
       </c>
       <c r="DT54">
-        <v>1.0320100000000001</v>
+        <v>1.0212000000000001</v>
       </c>
       <c r="DU54">
         <v>-0.71544600000000003</v>
@@ -27795,7 +27795,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="55" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>671</v>
       </c>
@@ -28160,13 +28160,13 @@
         <v>-4.7869220940000003</v>
       </c>
       <c r="DR55">
-        <v>-0.26297999999999999</v>
+        <v>-0.26123000000000002</v>
       </c>
       <c r="DS55">
-        <v>1.0824800000000001</v>
+        <v>1.1147</v>
       </c>
       <c r="DT55">
-        <v>1.08386</v>
+        <v>1.08403</v>
       </c>
       <c r="DU55">
         <v>-0.48899900000000002</v>
@@ -28229,7 +28229,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="56" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>680</v>
       </c>
@@ -28594,13 +28594,13 @@
         <v>-3.2927453660000001</v>
       </c>
       <c r="DR56">
-        <v>-0.27839000000000003</v>
+        <v>-0.28655999999999998</v>
       </c>
       <c r="DS56">
-        <v>1.08561</v>
+        <v>1.0755699999999999</v>
       </c>
       <c r="DT56">
-        <v>1.0858099999999999</v>
+        <v>1.07531</v>
       </c>
       <c r="DU56">
         <v>-0.50270099999999995</v>
@@ -28669,7 +28669,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="57" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>690</v>
       </c>
@@ -29034,13 +29034,13 @@
         <v>-3.4360337379999999</v>
       </c>
       <c r="DR57">
-        <v>-0.24479000000000001</v>
+        <v>-0.30526999999999999</v>
       </c>
       <c r="DS57">
-        <v>1.0703</v>
+        <v>1.1002700000000001</v>
       </c>
       <c r="DT57">
-        <v>1.06545</v>
+        <v>1.1023000000000001</v>
       </c>
       <c r="DU57">
         <v>-0.48031600000000002</v>
@@ -29109,7 +29109,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>700</v>
       </c>
@@ -29450,13 +29450,13 @@
         <v>-2.959118337</v>
       </c>
       <c r="DR58">
-        <v>1.6570000000000001E-2</v>
+        <v>-3.1480000000000001E-2</v>
       </c>
       <c r="DS58">
-        <v>-0.51398999999999995</v>
+        <v>-0.56574000000000002</v>
       </c>
       <c r="DT58">
-        <v>0.97746</v>
+        <v>1.13893</v>
       </c>
       <c r="DU58">
         <v>-0.30408099999999999</v>
@@ -29525,7 +29525,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="59" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>712</v>
       </c>
@@ -29884,13 +29884,13 @@
         <v>-6.5896322029999999</v>
       </c>
       <c r="DR59">
-        <v>-0.13391</v>
+        <v>-0.20344999999999999</v>
       </c>
       <c r="DS59">
-        <v>1.0386599999999999</v>
+        <v>1.0825899999999999</v>
       </c>
       <c r="DT59">
-        <v>1.15415</v>
+        <v>1.15726</v>
       </c>
       <c r="DU59">
         <v>-0.52290899999999996</v>
@@ -29959,7 +29959,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="60" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>723</v>
       </c>
@@ -30324,13 +30324,13 @@
         <v>-5.8442856589999996</v>
       </c>
       <c r="DR60">
-        <v>-0.27828000000000003</v>
+        <v>-0.245</v>
       </c>
       <c r="DS60">
-        <v>1.0783799999999999</v>
+        <v>1.1097600000000001</v>
       </c>
       <c r="DT60">
-        <v>1.0782700000000001</v>
+        <v>1.0965100000000001</v>
       </c>
       <c r="DU60">
         <v>-0.55038600000000004</v>
@@ -30396,7 +30396,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="61" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>732</v>
       </c>
@@ -30761,13 +30761,13 @@
         <v>-5.5912012139999998</v>
       </c>
       <c r="DR61">
-        <v>-0.33111000000000002</v>
+        <v>-0.44602999999999998</v>
       </c>
       <c r="DS61">
-        <v>1.8190200000000001</v>
+        <v>1.8479699999999999</v>
       </c>
       <c r="DT61">
-        <v>1.8191299999999999</v>
+        <v>1.8480300000000001</v>
       </c>
       <c r="DU61">
         <v>-0.92594600000000005</v>
@@ -30833,7 +30833,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="62" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>743</v>
       </c>
@@ -31198,13 +31198,13 @@
         <v>-7.5809253410000004</v>
       </c>
       <c r="DR62">
-        <v>-0.38795000000000002</v>
+        <v>-0.40014</v>
       </c>
       <c r="DS62">
-        <v>1.84887</v>
+        <v>1.8492</v>
       </c>
       <c r="DT62">
-        <v>1.83941</v>
+        <v>1.84867</v>
       </c>
       <c r="DU62">
         <v>-0.77120500000000003</v>
@@ -31270,7 +31270,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="63" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>753</v>
       </c>
@@ -31563,13 +31563,13 @@
         <v>-5.6386889529999999</v>
       </c>
       <c r="DR63">
-        <v>-0.33410000000000001</v>
+        <v>-0.40353</v>
       </c>
       <c r="DS63">
-        <v>1.84697</v>
+        <v>1.86124</v>
       </c>
       <c r="DT63">
-        <v>1.84101</v>
+        <v>1.86589</v>
       </c>
       <c r="DU63">
         <v>-0.71823899999999996</v>
@@ -31635,7 +31635,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="64" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>761</v>
       </c>
@@ -32000,13 +32000,13 @@
         <v>-6.2221554169999997</v>
       </c>
       <c r="DR64">
-        <v>-0.26395000000000002</v>
+        <v>-0.20311000000000001</v>
       </c>
       <c r="DS64">
-        <v>1.0810200000000001</v>
+        <v>1.11765</v>
       </c>
       <c r="DT64">
-        <v>1.07578</v>
+        <v>1.0496000000000001</v>
       </c>
       <c r="DU64">
         <v>-0.56639700000000004</v>
@@ -32072,7 +32072,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="65" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>770</v>
       </c>
@@ -32437,13 +32437,13 @@
         <v>-4.2668527449999996</v>
       </c>
       <c r="DR65">
-        <v>-0.27229999999999999</v>
+        <v>-0.29447000000000001</v>
       </c>
       <c r="DS65">
-        <v>1.05721</v>
+        <v>1.0649500000000001</v>
       </c>
       <c r="DT65">
-        <v>1.0637000000000001</v>
+        <v>1.05755</v>
       </c>
       <c r="DU65">
         <v>-0.459339</v>
@@ -32512,7 +32512,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="66" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>780</v>
       </c>
@@ -32877,13 +32877,13 @@
         <v>-3.4651001670000001</v>
       </c>
       <c r="DR66">
-        <v>-0.29015999999999997</v>
+        <v>-0.32286999999999999</v>
       </c>
       <c r="DS66">
-        <v>1.08205</v>
+        <v>1.0980700000000001</v>
       </c>
       <c r="DT66">
-        <v>1.0734399999999999</v>
+        <v>1.1041700000000001</v>
       </c>
       <c r="DU66">
         <v>-0.51558400000000004</v>
@@ -32952,7 +32952,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="67" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>790</v>
       </c>
@@ -33317,13 +33317,13 @@
         <v>-2.8386336330000002</v>
       </c>
       <c r="DR67">
-        <v>-0.28428999999999999</v>
+        <v>-0.28708</v>
       </c>
       <c r="DS67">
-        <v>1.0548299999999999</v>
+        <v>1.0439799999999999</v>
       </c>
       <c r="DT67">
-        <v>1.0465</v>
+        <v>1.0376099999999999</v>
       </c>
       <c r="DU67">
         <v>-0.449797</v>
@@ -33392,7 +33392,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="68" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>800</v>
       </c>
@@ -33757,13 +33757,13 @@
         <v>-2.8062659239999999</v>
       </c>
       <c r="DR68">
-        <v>-0.28527000000000002</v>
+        <v>-0.27704000000000001</v>
       </c>
       <c r="DS68">
-        <v>1.05101</v>
+        <v>1.05199</v>
       </c>
       <c r="DT68">
-        <v>1.04939</v>
+        <v>1.0328599999999999</v>
       </c>
       <c r="DU68">
         <v>-0.49052000000000001</v>
@@ -33832,7 +33832,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="69" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>810</v>
       </c>
@@ -34197,13 +34197,13 @@
         <v>-3.0940224789999999</v>
       </c>
       <c r="DR69">
-        <v>-0.26889999999999997</v>
+        <v>-0.29065999999999997</v>
       </c>
       <c r="DS69">
-        <v>1.0763</v>
+        <v>1.0781000000000001</v>
       </c>
       <c r="DT69">
-        <v>1.0761700000000001</v>
+        <v>1.0795999999999999</v>
       </c>
       <c r="DU69">
         <v>-0.50841899999999995</v>
@@ -34272,7 +34272,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="70" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>820</v>
       </c>
@@ -34637,13 +34637,13 @@
         <v>-2.7017997380000001</v>
       </c>
       <c r="DR70">
-        <v>-0.26822000000000001</v>
+        <v>-0.29138999999999998</v>
       </c>
       <c r="DS70">
-        <v>1.06406</v>
+        <v>1.06315</v>
       </c>
       <c r="DT70">
-        <v>1.0639400000000001</v>
+        <v>1.06385</v>
       </c>
       <c r="DU70">
         <v>-0.497865</v>
@@ -34712,7 +34712,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="71" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>830</v>
       </c>
@@ -35077,13 +35077,13 @@
         <v>-4.8875808059999999</v>
       </c>
       <c r="DR71">
-        <v>-0.26989000000000002</v>
+        <v>-0.25548999999999999</v>
       </c>
       <c r="DS71">
-        <v>1.07097</v>
+        <v>1.0798700000000001</v>
       </c>
       <c r="DT71">
-        <v>1.0672900000000001</v>
+        <v>1.07935</v>
       </c>
       <c r="DU71">
         <v>-0.55605700000000002</v>
@@ -35149,7 +35149,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="72" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>839</v>
       </c>
@@ -35490,13 +35490,13 @@
         <v>-3.1491642450000001</v>
       </c>
       <c r="DR72">
-        <v>8.0000000000000004E-4</v>
+        <v>-1.883E-2</v>
       </c>
       <c r="DS72">
-        <v>-0.51004000000000005</v>
+        <v>-0.56344000000000005</v>
       </c>
       <c r="DT72">
-        <v>1.0845100000000001</v>
+        <v>1.1358299999999999</v>
       </c>
       <c r="DU72">
         <v>-0.31899699999999998</v>
@@ -35565,7 +35565,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="73" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>849</v>
       </c>
@@ -35813,13 +35813,13 @@
         <v>-3.5603463299999998</v>
       </c>
       <c r="DR73">
-        <v>-5.765E-2</v>
+        <v>-3.628E-2</v>
       </c>
       <c r="DS73">
-        <v>-0.46115</v>
+        <v>-0.48759999999999998</v>
       </c>
       <c r="DT73">
-        <v>1.2085399999999999</v>
+        <v>1.1656899999999999</v>
       </c>
       <c r="DU73">
         <v>-0.29999399999999998</v>
@@ -35888,7 +35888,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="74" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>859</v>
       </c>
@@ -36229,13 +36229,13 @@
         <v>-2.9158305360000001</v>
       </c>
       <c r="DR74">
-        <v>-3.2320000000000002E-2</v>
+        <v>-4.666E-2</v>
       </c>
       <c r="DS74">
-        <v>-0.53320999999999996</v>
+        <v>-0.57787999999999995</v>
       </c>
       <c r="DT74">
-        <v>1.07759</v>
+        <v>1.1357299999999999</v>
       </c>
       <c r="DU74">
         <v>-0.34404499999999999</v>
@@ -36304,7 +36304,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="75" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>869</v>
       </c>
@@ -36555,13 +36555,13 @@
         <v>-5.432344316</v>
       </c>
       <c r="DR75">
-        <v>-0.1419</v>
+        <v>-0.30975999999999998</v>
       </c>
       <c r="DS75">
-        <v>1.0265500000000001</v>
+        <v>1.0903499999999999</v>
       </c>
       <c r="DT75">
-        <v>1.05094</v>
+        <v>1.1201700000000001</v>
       </c>
       <c r="DU75">
         <v>-0.63202499999999995</v>
@@ -36627,7 +36627,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="76" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>879</v>
       </c>
@@ -36992,13 +36992,13 @@
         <v>-5.7250488959999997</v>
       </c>
       <c r="DR76">
-        <v>-0.27476</v>
+        <v>-0.25985000000000003</v>
       </c>
       <c r="DS76">
-        <v>1.07592</v>
+        <v>1.1003499999999999</v>
       </c>
       <c r="DT76">
-        <v>1.06586</v>
+        <v>1.0646199999999999</v>
       </c>
       <c r="DU76">
         <v>-0.55291900000000005</v>
@@ -37064,7 +37064,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="77" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>888</v>
       </c>
@@ -37372,13 +37372,13 @@
         <v>-5.7349110879999996</v>
       </c>
       <c r="DR77">
-        <v>-0.21837999999999999</v>
+        <v>-0.26169999999999999</v>
       </c>
       <c r="DS77">
-        <v>1.0538000000000001</v>
+        <v>1.09171</v>
       </c>
       <c r="DT77">
-        <v>1.0779000000000001</v>
+        <v>1.09196</v>
       </c>
       <c r="DU77">
         <v>-0.46857399999999999</v>
@@ -37444,7 +37444,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="78" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>897</v>
       </c>
@@ -37809,13 +37809,13 @@
         <v>-3.605305381</v>
       </c>
       <c r="DR78">
-        <v>-0.27834999999999999</v>
+        <v>-0.32013000000000003</v>
       </c>
       <c r="DS78">
-        <v>1.07701</v>
+        <v>1.1104700000000001</v>
       </c>
       <c r="DT78">
-        <v>1.0769599999999999</v>
+        <v>1.11053</v>
       </c>
       <c r="DU78">
         <v>-0.60988600000000004</v>
@@ -37884,7 +37884,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="79" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>907</v>
       </c>
@@ -38249,13 +38249,13 @@
         <v>-3.6474488119999999</v>
       </c>
       <c r="DR79">
-        <v>-0.26641999999999999</v>
+        <v>-0.28403</v>
       </c>
       <c r="DS79">
-        <v>1.10884</v>
+        <v>1.1315999999999999</v>
       </c>
       <c r="DT79">
-        <v>1.11185</v>
+        <v>1.1323300000000001</v>
       </c>
       <c r="DU79">
         <v>-0.55177500000000002</v>
@@ -38324,7 +38324,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="80" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>917</v>
       </c>
@@ -38686,13 +38686,13 @@
         <v>-4.790285914</v>
       </c>
       <c r="DR80">
-        <v>-0.19262000000000001</v>
+        <v>-0.25466</v>
       </c>
       <c r="DS80">
-        <v>1.04419</v>
+        <v>1.1496999999999999</v>
       </c>
       <c r="DT80">
-        <v>1.10463</v>
+        <v>1.08917</v>
       </c>
       <c r="DU80">
         <v>-0.42877799999999999</v>
@@ -38761,7 +38761,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="81" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>927</v>
       </c>
@@ -39126,13 +39126,13 @@
         <v>-3.7569219280000001</v>
       </c>
       <c r="DR81">
-        <v>-0.28543000000000002</v>
+        <v>-0.31617000000000001</v>
       </c>
       <c r="DS81">
-        <v>1.0728</v>
+        <v>1.0974999999999999</v>
       </c>
       <c r="DT81">
-        <v>1.0690900000000001</v>
+        <v>1.0987199999999999</v>
       </c>
       <c r="DU81">
         <v>-0.63184200000000001</v>
@@ -39201,7 +39201,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="82" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>937</v>
       </c>
@@ -39542,13 +39542,13 @@
         <v>-3.4666817139999999</v>
       </c>
       <c r="DR82">
-        <v>2.97E-3</v>
+        <v>-2.1680000000000001E-2</v>
       </c>
       <c r="DS82">
-        <v>-0.51842999999999995</v>
+        <v>-0.55720000000000003</v>
       </c>
       <c r="DT82">
-        <v>1.0644400000000001</v>
+        <v>1.0887199999999999</v>
       </c>
       <c r="DU82">
         <v>-0.39447500000000002</v>
@@ -39617,7 +39617,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="83" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>947</v>
       </c>
@@ -39982,13 +39982,13 @@
         <v>-4.6092069770000004</v>
       </c>
       <c r="DR83">
-        <v>-0.27433999999999997</v>
+        <v>-0.24603</v>
       </c>
       <c r="DS83">
-        <v>1.0653300000000001</v>
+        <v>1.1059300000000001</v>
       </c>
       <c r="DT83">
-        <v>1.07195</v>
+        <v>1.0823199999999999</v>
       </c>
       <c r="DU83">
         <v>-0.56987200000000005</v>
@@ -40057,7 +40057,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="84" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>957</v>
       </c>
@@ -40422,13 +40422,13 @@
         <v>-5.789664052</v>
       </c>
       <c r="DR84">
-        <v>-0.22932</v>
+        <v>-0.21962999999999999</v>
       </c>
       <c r="DS84">
-        <v>1.05749</v>
+        <v>1.0600099999999999</v>
       </c>
       <c r="DT84">
-        <v>1.0640000000000001</v>
+        <v>1.0558000000000001</v>
       </c>
       <c r="DU84">
         <v>-0.538269</v>
@@ -40497,7 +40497,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="85" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>968</v>
       </c>
@@ -40862,13 +40862,13 @@
         <v>-3.285338979</v>
       </c>
       <c r="DR85">
-        <v>-0.28065000000000001</v>
+        <v>-0.27928999999999998</v>
       </c>
       <c r="DS85">
-        <v>1.0359</v>
+        <v>1.02695</v>
       </c>
       <c r="DT85">
-        <v>1.0362</v>
+        <v>1.02616</v>
       </c>
       <c r="DU85">
         <v>-0.51195999999999997</v>
@@ -40937,7 +40937,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="86" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>978</v>
       </c>
@@ -41302,13 +41302,13 @@
         <v>-3.5697118309999998</v>
       </c>
       <c r="DR86">
-        <v>-0.29222999999999999</v>
+        <v>-0.2319</v>
       </c>
       <c r="DS86">
-        <v>1.0462</v>
+        <v>1.0086900000000001</v>
       </c>
       <c r="DT86">
-        <v>1.0442</v>
+        <v>1.0093700000000001</v>
       </c>
       <c r="DU86">
         <v>-0.53070899999999999</v>
@@ -41377,7 +41377,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="87" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>988</v>
       </c>
@@ -41742,13 +41742,13 @@
         <v>-4.0980469480000004</v>
       </c>
       <c r="DR87">
-        <v>-0.40872999999999998</v>
+        <v>-0.23272000000000001</v>
       </c>
       <c r="DS87">
-        <v>1.1218600000000001</v>
+        <v>1.00261</v>
       </c>
       <c r="DT87">
-        <v>1.1233299999999999</v>
+        <v>1.0032700000000001</v>
       </c>
       <c r="DU87">
         <v>-0.66309300000000004</v>
@@ -41817,7 +41817,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="88" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>999</v>
       </c>
@@ -42182,13 +42182,13 @@
         <v>-5.0364654340000001</v>
       </c>
       <c r="DR88">
-        <v>-0.27139000000000002</v>
+        <v>-0.26090000000000002</v>
       </c>
       <c r="DS88">
-        <v>1.05399</v>
+        <v>1.0378799999999999</v>
       </c>
       <c r="DT88">
-        <v>1.04009</v>
+        <v>1.0349900000000001</v>
       </c>
       <c r="DU88">
         <v>-0.43745400000000001</v>
@@ -42257,7 +42257,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="89" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1009</v>
       </c>
@@ -42622,13 +42622,13 @@
         <v>-3.7013848490000001</v>
       </c>
       <c r="DR89">
-        <v>-0.29264000000000001</v>
+        <v>-0.29108000000000001</v>
       </c>
       <c r="DS89">
-        <v>1.0831900000000001</v>
+        <v>1.1093299999999999</v>
       </c>
       <c r="DT89">
-        <v>1.0700799999999999</v>
+        <v>1.07422</v>
       </c>
       <c r="DU89">
         <v>-0.533914</v>
@@ -42697,7 +42697,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="90" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1019</v>
       </c>
@@ -43062,13 +43062,13 @@
         <v>-4.6322373350000001</v>
       </c>
       <c r="DR90">
-        <v>-0.28366999999999998</v>
+        <v>-0.28327999999999998</v>
       </c>
       <c r="DS90">
-        <v>1.08863</v>
+        <v>1.1135200000000001</v>
       </c>
       <c r="DT90">
-        <v>1.08853</v>
+        <v>1.11372</v>
       </c>
       <c r="DU90">
         <v>-0.53317400000000004</v>
@@ -43134,7 +43134,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="91" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1028</v>
       </c>
@@ -43496,13 +43496,13 @@
         <v>-4.7642587360000004</v>
       </c>
       <c r="DR91">
-        <v>-6.6960000000000006E-2</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="DS91">
-        <v>1.1438999999999999</v>
+        <v>1.12043</v>
       </c>
       <c r="DT91">
-        <v>0.72533000000000003</v>
+        <v>1.12063</v>
       </c>
       <c r="DU91">
         <v>-0.52878599999999998</v>
@@ -43568,7 +43568,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="92" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1037</v>
       </c>
@@ -43933,13 +43933,13 @@
         <v>-5.2213869429999997</v>
       </c>
       <c r="DR92">
-        <v>-0.27184999999999998</v>
+        <v>-0.27062999999999998</v>
       </c>
       <c r="DS92">
-        <v>1.0854600000000001</v>
+        <v>1.1019399999999999</v>
       </c>
       <c r="DT92">
-        <v>1.08321</v>
+        <v>1.10453</v>
       </c>
       <c r="DU92">
         <v>-0.49580299999999999</v>
@@ -43999,7 +43999,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="93" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1045</v>
       </c>
@@ -44364,13 +44364,13 @@
         <v>-4.9899125260000003</v>
       </c>
       <c r="DR93">
-        <v>-0.27124999999999999</v>
+        <v>-0.27239999999999998</v>
       </c>
       <c r="DS93">
-        <v>1.0805400000000001</v>
+        <v>1.0950500000000001</v>
       </c>
       <c r="DT93">
-        <v>1.0746800000000001</v>
+        <v>1.0983799999999999</v>
       </c>
       <c r="DU93">
         <v>-0.477246</v>
@@ -44430,7 +44430,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="94" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1053</v>
       </c>
@@ -44795,13 +44795,13 @@
         <v>-5.2229543510000003</v>
       </c>
       <c r="DR94">
-        <v>-0.40411000000000002</v>
+        <v>-0.29546</v>
       </c>
       <c r="DS94">
-        <v>1.2147699999999999</v>
+        <v>1.1168</v>
       </c>
       <c r="DT94">
-        <v>1.21485</v>
+        <v>1.1165400000000001</v>
       </c>
       <c r="DU94">
         <v>-0.52620900000000004</v>
@@ -44861,7 +44861,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="95" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1062</v>
       </c>
@@ -45226,13 +45226,13 @@
         <v>-5.572417454</v>
       </c>
       <c r="DR95">
-        <v>-0.27139000000000002</v>
+        <v>-0.28565000000000002</v>
       </c>
       <c r="DS95">
-        <v>1.0774600000000001</v>
+        <v>1.1053500000000001</v>
       </c>
       <c r="DT95">
-        <v>1.07843</v>
+        <v>1.09884</v>
       </c>
       <c r="DU95">
         <v>-0.57382299999999997</v>
@@ -45292,7 +45292,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="96" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1070</v>
       </c>
@@ -45657,13 +45657,13 @@
         <v>-4.406111686</v>
       </c>
       <c r="DR96">
-        <v>-0.27776000000000001</v>
+        <v>-0.28954000000000002</v>
       </c>
       <c r="DS96">
-        <v>1.0805899999999999</v>
+        <v>1.0975299999999999</v>
       </c>
       <c r="DT96">
-        <v>1.0831999999999999</v>
+        <v>1.10578</v>
       </c>
       <c r="DU96">
         <v>-0.49693799999999999</v>
@@ -45732,7 +45732,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="97" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1080</v>
       </c>
@@ -46097,13 +46097,13 @@
         <v>-5.9465780930000003</v>
       </c>
       <c r="DR97">
-        <v>-0.28804999999999997</v>
+        <v>-0.29588999999999999</v>
       </c>
       <c r="DS97">
-        <v>1.08175</v>
+        <v>1.1008500000000001</v>
       </c>
       <c r="DT97">
-        <v>1.0731599999999999</v>
+        <v>1.10398</v>
       </c>
       <c r="DU97">
         <v>-0.46461000000000002</v>
@@ -46163,7 +46163,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="98" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1088</v>
       </c>
@@ -46528,13 +46528,13 @@
         <v>-5.5171710789999997</v>
       </c>
       <c r="DR98">
-        <v>-0.35291</v>
+        <v>-0.22162000000000001</v>
       </c>
       <c r="DS98">
-        <v>1.2205699999999999</v>
+        <v>1.06074</v>
       </c>
       <c r="DT98">
-        <v>1.00987</v>
+        <v>1.0958000000000001</v>
       </c>
       <c r="DU98">
         <v>-0.51430299999999995</v>
@@ -46600,7 +46600,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="99" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1097</v>
       </c>
@@ -46965,13 +46965,13 @@
         <v>-3.9158144570000002</v>
       </c>
       <c r="DR99">
-        <v>-0.26939000000000002</v>
+        <v>-0.28206999999999999</v>
       </c>
       <c r="DS99">
-        <v>1.1083799999999999</v>
+        <v>1.1325099999999999</v>
       </c>
       <c r="DT99">
-        <v>1.1000799999999999</v>
+        <v>1.1186400000000001</v>
       </c>
       <c r="DU99">
         <v>-0.50653000000000004</v>
@@ -47040,7 +47040,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="100" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1107</v>
       </c>
@@ -47288,13 +47288,13 @@
         <v>-3.0190929400000002</v>
       </c>
       <c r="DR100">
-        <v>6.4140000000000003E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="DS100">
-        <v>-0.84148999999999996</v>
+        <v>-0.80344000000000004</v>
       </c>
       <c r="DT100">
-        <v>1.1326799999999999</v>
+        <v>1.1228899999999999</v>
       </c>
       <c r="DU100">
         <v>-0.41247</v>
@@ -47360,7 +47360,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="101" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1117</v>
       </c>
@@ -47719,13 +47719,13 @@
         <v>-5.0717676589999998</v>
       </c>
       <c r="DR101">
-        <v>-0.36086000000000001</v>
+        <v>-0.21052999999999999</v>
       </c>
       <c r="DS101">
-        <v>1.2241</v>
+        <v>1.0482100000000001</v>
       </c>
       <c r="DT101">
-        <v>0.97765000000000002</v>
+        <v>1.0192699999999999</v>
       </c>
       <c r="DU101">
         <v>-0.60696600000000001</v>
@@ -47794,7 +47794,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="102" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1127</v>
       </c>
@@ -48147,13 +48147,13 @@
         <v>-5.0357489260000001</v>
       </c>
       <c r="DR102">
-        <v>-8.8010000000000005E-2</v>
+        <v>-8.5949999999999999E-2</v>
       </c>
       <c r="DS102">
-        <v>0.92986000000000002</v>
+        <v>0.93228</v>
       </c>
       <c r="DT102">
-        <v>0.97550000000000003</v>
+        <v>0.97555000000000003</v>
       </c>
       <c r="DU102">
         <v>-0.36099700000000001</v>
@@ -48222,7 +48222,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="103" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1138</v>
       </c>
@@ -48587,13 +48587,13 @@
         <v>-3.454796881</v>
       </c>
       <c r="DR103">
-        <v>-0.37515999999999999</v>
+        <v>-0.30230000000000001</v>
       </c>
       <c r="DS103">
-        <v>1.39985</v>
+        <v>1.06121</v>
       </c>
       <c r="DT103">
-        <v>1.45625</v>
+        <v>1.07639</v>
       </c>
       <c r="DU103">
         <v>-0.61529599999999995</v>
@@ -48659,7 +48659,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="104" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1148</v>
       </c>
@@ -49021,13 +49021,13 @@
         <v>-5.3060591810000002</v>
       </c>
       <c r="DR104">
-        <v>-0.16531000000000001</v>
+        <v>-0.43114000000000002</v>
       </c>
       <c r="DS104">
-        <v>1.0254000000000001</v>
+        <v>1.1566700000000001</v>
       </c>
       <c r="DT104">
-        <v>1.0099800000000001</v>
+        <v>1.1874100000000001</v>
       </c>
       <c r="DU104">
         <v>-0.68861000000000006</v>
@@ -49096,7 +49096,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="105" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1159</v>
       </c>
@@ -49461,13 +49461,13 @@
         <v>-4.908582344</v>
       </c>
       <c r="DR105">
-        <v>-0.32602999999999999</v>
+        <v>-0.42720000000000002</v>
       </c>
       <c r="DS105">
-        <v>1.8557300000000001</v>
+        <v>1.87679</v>
       </c>
       <c r="DT105">
-        <v>1.84884</v>
+        <v>1.8703399999999999</v>
       </c>
       <c r="DU105">
         <v>-0.710669</v>
@@ -49533,7 +49533,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="106" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1169</v>
       </c>
@@ -49781,13 +49781,13 @@
         <v>-3.341333288</v>
       </c>
       <c r="DR106">
-        <v>-0.13134999999999999</v>
+        <v>-1.9300000000000001E-3</v>
       </c>
       <c r="DS106">
-        <v>-0.49464000000000002</v>
+        <v>-0.54178000000000004</v>
       </c>
       <c r="DT106">
-        <v>1.32996</v>
+        <v>1.1397900000000001</v>
       </c>
       <c r="DU106">
         <v>-0.44154599999999999</v>
@@ -49853,7 +49853,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="107" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1180</v>
       </c>
@@ -50218,13 +50218,13 @@
         <v>-5.8025596149999998</v>
       </c>
       <c r="DR107">
-        <v>-0.26984999999999998</v>
+        <v>-0.28988000000000003</v>
       </c>
       <c r="DS107">
-        <v>1.0724100000000001</v>
+        <v>1.10545</v>
       </c>
       <c r="DT107">
-        <v>1.08853</v>
+        <v>1.11229</v>
       </c>
       <c r="DU107">
         <v>-0.548682</v>
@@ -50290,7 +50290,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="108" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1189</v>
       </c>
@@ -50631,13 +50631,13 @@
         <v>-2.1873116889999999</v>
       </c>
       <c r="DR108">
-        <v>-3.3820000000000003E-2</v>
+        <v>-2.0400000000000001E-2</v>
       </c>
       <c r="DS108">
-        <v>-0.62190000000000001</v>
+        <v>-0.67095000000000005</v>
       </c>
       <c r="DT108">
-        <v>1.06107</v>
+        <v>1.09924</v>
       </c>
       <c r="DU108">
         <v>-0.35231000000000001</v>
@@ -50706,7 +50706,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="109" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1199</v>
       </c>
@@ -51071,13 +51071,13 @@
         <v>-3.2550012210000001</v>
       </c>
       <c r="DR109">
-        <v>-0.27866000000000002</v>
+        <v>-0.32020999999999999</v>
       </c>
       <c r="DS109">
-        <v>1.0771200000000001</v>
+        <v>1.11276</v>
       </c>
       <c r="DT109">
-        <v>1.0834999999999999</v>
+        <v>1.1052999999999999</v>
       </c>
       <c r="DU109">
         <v>-0.51507199999999997</v>
@@ -51146,7 +51146,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="110" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1209</v>
       </c>
@@ -51511,13 +51511,13 @@
         <v>-4.7448738700000002</v>
       </c>
       <c r="DR110">
-        <v>-0.26295000000000002</v>
+        <v>-0.21351000000000001</v>
       </c>
       <c r="DS110">
-        <v>0.99563999999999997</v>
+        <v>0.97818000000000005</v>
       </c>
       <c r="DT110">
-        <v>0.98255999999999999</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="DU110">
         <v>-0.48786299999999999</v>
@@ -51586,7 +51586,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="111" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1219</v>
       </c>
@@ -51951,13 +51951,13 @@
         <v>-3.1920470989999998</v>
       </c>
       <c r="DR111">
-        <v>-0.28556999999999999</v>
+        <v>-0.28567999999999999</v>
       </c>
       <c r="DS111">
-        <v>1.08151</v>
+        <v>1.08111</v>
       </c>
       <c r="DT111">
-        <v>1.01528</v>
+        <v>1.0154000000000001</v>
       </c>
       <c r="DU111">
         <v>-0.54330500000000004</v>
@@ -52026,7 +52026,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="112" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1230</v>
       </c>
@@ -52391,13 +52391,13 @@
         <v>-2.6510601239999998</v>
       </c>
       <c r="DR112">
-        <v>-0.27714</v>
+        <v>-0.27854000000000001</v>
       </c>
       <c r="DS112">
-        <v>1.0639099999999999</v>
+        <v>1.0721799999999999</v>
       </c>
       <c r="DT112">
-        <v>1.0753200000000001</v>
+        <v>1.07182</v>
       </c>
       <c r="DU112">
         <v>-0.51113699999999995</v>
@@ -52466,7 +52466,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="113" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1241</v>
       </c>
@@ -52717,13 +52717,13 @@
         <v>-5.2355308410000001</v>
       </c>
       <c r="DR113">
-        <v>-0.35831000000000002</v>
+        <v>-0.26916000000000001</v>
       </c>
       <c r="DS113">
-        <v>1.0929199999999999</v>
+        <v>1.0891900000000001</v>
       </c>
       <c r="DT113">
-        <v>1.1800200000000001</v>
+        <v>1.0491900000000001</v>
       </c>
       <c r="DU113">
         <v>-0.61995100000000003</v>
@@ -52792,7 +52792,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="114" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1251</v>
       </c>
@@ -53157,13 +53157,13 @@
         <v>-3.804916414</v>
       </c>
       <c r="DR114">
-        <v>-0.27667000000000003</v>
+        <v>-0.30101</v>
       </c>
       <c r="DS114">
-        <v>1.0565899999999999</v>
+        <v>1.0828199999999999</v>
       </c>
       <c r="DT114">
-        <v>1.0567200000000001</v>
+        <v>1.08297</v>
       </c>
       <c r="DU114">
         <v>-0.50587599999999999</v>
@@ -53232,7 +53232,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="115" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1261</v>
       </c>
@@ -53480,13 +53480,13 @@
         <v>-3.3512902929999999</v>
       </c>
       <c r="DR115">
-        <v>-5.1389999999999998E-2</v>
+        <v>-2.215E-2</v>
       </c>
       <c r="DS115">
-        <v>-0.52824000000000004</v>
+        <v>-0.53981000000000001</v>
       </c>
       <c r="DT115">
-        <v>1.18544</v>
+        <v>1.11927</v>
       </c>
       <c r="DU115">
         <v>-0.53568300000000002</v>
@@ -53552,7 +53552,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="116" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1268</v>
       </c>
@@ -53800,13 +53800,13 @@
         <v>-3.8205247180000002</v>
       </c>
       <c r="DR116">
-        <v>-0.12475</v>
+        <v>-1.111E-2</v>
       </c>
       <c r="DS116">
-        <v>-0.4919</v>
+        <v>-0.54115000000000002</v>
       </c>
       <c r="DT116">
-        <v>1.31623</v>
+        <v>1.1444300000000001</v>
       </c>
       <c r="DU116">
         <v>-0.464231</v>
@@ -53872,7 +53872,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="117" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1279</v>
       </c>
@@ -54231,13 +54231,13 @@
         <v>-5.7943388589999998</v>
       </c>
       <c r="DR117">
-        <v>0.1482</v>
+        <v>8.4690000000000001E-2</v>
       </c>
       <c r="DS117">
-        <v>1.25623</v>
+        <v>1.0525100000000001</v>
       </c>
       <c r="DT117">
-        <v>1.9904900000000001</v>
+        <v>1.9559899999999999</v>
       </c>
       <c r="DU117">
         <v>-0.338366</v>
@@ -54303,7 +54303,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="118" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1290</v>
       </c>
@@ -54668,13 +54668,13 @@
         <v>-5.7902985620000003</v>
       </c>
       <c r="DR118">
-        <v>-0.25286999999999998</v>
+        <v>-0.24989</v>
       </c>
       <c r="DS118">
-        <v>1.06088</v>
+        <v>1.0648500000000001</v>
       </c>
       <c r="DT118">
-        <v>1.0703100000000001</v>
+        <v>1.06734</v>
       </c>
       <c r="DU118">
         <v>-0.45438800000000001</v>
@@ -54740,7 +54740,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="119" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1299</v>
       </c>
@@ -55105,13 +55105,13 @@
         <v>-5.6706383410000001</v>
       </c>
       <c r="DR119">
-        <v>-0.26518000000000003</v>
+        <v>-0.19722999999999999</v>
       </c>
       <c r="DS119">
-        <v>1.07772</v>
+        <v>1.1001399999999999</v>
       </c>
       <c r="DT119">
-        <v>1.07419</v>
+        <v>1.0561499999999999</v>
       </c>
       <c r="DU119">
         <v>-0.56392399999999998</v>
@@ -55177,7 +55177,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="120" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1308</v>
       </c>
@@ -55542,13 +55542,13 @@
         <v>-4.7378246820000003</v>
       </c>
       <c r="DR120">
-        <v>-0.27744000000000002</v>
+        <v>-0.25629000000000002</v>
       </c>
       <c r="DS120">
-        <v>1.0382499999999999</v>
+        <v>1.0521100000000001</v>
       </c>
       <c r="DT120">
-        <v>1.0703400000000001</v>
+        <v>1.0541799999999999</v>
       </c>
       <c r="DU120">
         <v>-0.43986799999999998</v>
@@ -55617,7 +55617,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="121" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1318</v>
       </c>
@@ -55982,13 +55982,13 @@
         <v>-4.6468485240000001</v>
       </c>
       <c r="DR121">
-        <v>-0.2737</v>
+        <v>-0.26584000000000002</v>
       </c>
       <c r="DS121">
-        <v>1.08338</v>
+        <v>1.0989800000000001</v>
       </c>
       <c r="DT121">
-        <v>1.08483</v>
+        <v>1.10348</v>
       </c>
       <c r="DU121">
         <v>-0.48145100000000002</v>
@@ -56054,7 +56054,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="122" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1327</v>
       </c>
@@ -56419,13 +56419,13 @@
         <v>-2.3864799040000002</v>
       </c>
       <c r="DR122">
-        <v>-0.27998000000000001</v>
+        <v>-0.29231000000000001</v>
       </c>
       <c r="DS122">
-        <v>1.0464500000000001</v>
+        <v>1.03504</v>
       </c>
       <c r="DT122">
-        <v>1.0464500000000001</v>
+        <v>1.0347</v>
       </c>
       <c r="DU122">
         <v>-0.45771499999999998</v>
@@ -56494,7 +56494,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="123" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1337</v>
       </c>
@@ -56859,13 +56859,13 @@
         <v>-4.8505610609999996</v>
       </c>
       <c r="DR123">
-        <v>-0.28571000000000002</v>
+        <v>-0.28971999999999998</v>
       </c>
       <c r="DS123">
-        <v>1.0904400000000001</v>
+        <v>1.11792</v>
       </c>
       <c r="DT123">
-        <v>1.0906100000000001</v>
+        <v>1.11764</v>
       </c>
       <c r="DU123">
         <v>-0.53934899999999997</v>
@@ -56931,7 +56931,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="124" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1346</v>
       </c>
@@ -57296,13 +57296,13 @@
         <v>-4.954939746</v>
       </c>
       <c r="DR124">
-        <v>-0.41757</v>
+        <v>-0.41776000000000002</v>
       </c>
       <c r="DS124">
-        <v>1.83772</v>
+        <v>1.83809</v>
       </c>
       <c r="DT124">
-        <v>1.8872800000000001</v>
+        <v>1.8874</v>
       </c>
       <c r="DU124">
         <v>-0.79352900000000004</v>
@@ -57368,7 +57368,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="125" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1356</v>
       </c>
@@ -57715,13 +57715,13 @@
         <v>-8.3461423470000007</v>
       </c>
       <c r="DR125">
-        <v>-0.31635999999999997</v>
+        <v>-0.37853999999999999</v>
       </c>
       <c r="DS125">
-        <v>1.8206199999999999</v>
+        <v>1.9203699999999999</v>
       </c>
       <c r="DT125">
-        <v>1.7797400000000001</v>
+        <v>1.82579</v>
       </c>
       <c r="DU125">
         <v>-0.66786599999999996</v>
@@ -57790,7 +57790,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="126" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1366</v>
       </c>
@@ -58155,13 +58155,13 @@
         <v>-4.9844244790000003</v>
       </c>
       <c r="DR126">
-        <v>-0.27899000000000002</v>
+        <v>-0.24795</v>
       </c>
       <c r="DS126">
-        <v>1.0758799999999999</v>
+        <v>1.1056299999999999</v>
       </c>
       <c r="DT126">
-        <v>1.07552</v>
+        <v>1.0929599999999999</v>
       </c>
       <c r="DU126">
         <v>-0.53461099999999995</v>
@@ -58227,7 +58227,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="127" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1375</v>
       </c>
@@ -58592,13 +58592,13 @@
         <v>-4.440725553</v>
       </c>
       <c r="DR127">
-        <v>-0.25997999999999999</v>
+        <v>-0.26978000000000002</v>
       </c>
       <c r="DS127">
-        <v>1.04481</v>
+        <v>1.0454699999999999</v>
       </c>
       <c r="DT127">
-        <v>1.0274799999999999</v>
+        <v>1.0379</v>
       </c>
       <c r="DU127">
         <v>-0.55303199999999997</v>
@@ -58667,7 +58667,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="128" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1385</v>
       </c>
@@ -59008,13 +59008,13 @@
         <v>-4.5133324970000004</v>
       </c>
       <c r="DR128">
-        <v>-1.0999999999999999E-2</v>
+        <v>1.057E-2</v>
       </c>
       <c r="DS128">
-        <v>-0.54708999999999997</v>
+        <v>-0.55637000000000003</v>
       </c>
       <c r="DT128">
-        <v>1.0205500000000001</v>
+        <v>1.06501</v>
       </c>
       <c r="DU128">
         <v>-0.31414999999999998</v>
@@ -59083,7 +59083,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="129" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1395</v>
       </c>
@@ -59448,13 +59448,13 @@
         <v>-4.4369774619999998</v>
       </c>
       <c r="DR129">
-        <v>-0.4012</v>
+        <v>-0.24961</v>
       </c>
       <c r="DS129">
-        <v>1.52803</v>
+        <v>1.08484</v>
       </c>
       <c r="DT129">
-        <v>1.35663</v>
+        <v>1.0388900000000001</v>
       </c>
       <c r="DU129">
         <v>-0.54522199999999998</v>
@@ -59520,7 +59520,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="130" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1405</v>
       </c>
@@ -59885,13 +59885,13 @@
         <v>-5.362482075</v>
       </c>
       <c r="DR130">
-        <v>-0.21318000000000001</v>
+        <v>-0.25802999999999998</v>
       </c>
       <c r="DS130">
-        <v>0.89192000000000005</v>
+        <v>1.1164799999999999</v>
       </c>
       <c r="DT130">
-        <v>1.05263</v>
+        <v>1.0834600000000001</v>
       </c>
       <c r="DU130">
         <v>-0.46957500000000002</v>
@@ -59957,7 +59957,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="131" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1414</v>
       </c>
@@ -60322,13 +60322,13 @@
         <v>-6.416463297</v>
       </c>
       <c r="DR131">
-        <v>-0.27371000000000001</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="DS131">
-        <v>1.09399</v>
+        <v>1.1202700000000001</v>
       </c>
       <c r="DT131">
-        <v>1.0870299999999999</v>
+        <v>1.1226100000000001</v>
       </c>
       <c r="DU131">
         <v>-0.51754199999999995</v>
@@ -60394,7 +60394,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="132" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1423</v>
       </c>
@@ -60759,13 +60759,13 @@
         <v>-5.267826178</v>
       </c>
       <c r="DR132">
-        <v>-0.27355000000000002</v>
+        <v>-0.20966000000000001</v>
       </c>
       <c r="DS132">
-        <v>0.96752000000000005</v>
+        <v>0.95243999999999995</v>
       </c>
       <c r="DT132">
-        <v>1.0292600000000001</v>
+        <v>0.99711000000000005</v>
       </c>
       <c r="DU132">
         <v>-0.42567899999999997</v>
@@ -60834,7 +60834,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="133" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1433</v>
       </c>
@@ -61181,13 +61181,13 @@
         <v>-5.6589041140000003</v>
       </c>
       <c r="DR133">
-        <v>-0.43004999999999999</v>
+        <v>-0.42780000000000001</v>
       </c>
       <c r="DS133">
-        <v>1.8674500000000001</v>
+        <v>1.8614900000000001</v>
       </c>
       <c r="DT133">
-        <v>1.8920600000000001</v>
+        <v>1.9013899999999999</v>
       </c>
       <c r="DU133">
         <v>-0.65194799999999997</v>
@@ -61253,7 +61253,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="134" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1443</v>
       </c>
@@ -61618,13 +61618,13 @@
         <v>-5.3090084329999998</v>
       </c>
       <c r="DR134">
-        <v>-0.27281</v>
+        <v>-0.25794</v>
       </c>
       <c r="DS134">
-        <v>1.0713900000000001</v>
+        <v>1.08823</v>
       </c>
       <c r="DT134">
-        <v>1.07243</v>
+        <v>1.0884199999999999</v>
       </c>
       <c r="DU134">
         <v>-0.56178600000000001</v>
@@ -61690,7 +61690,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="135" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1452</v>
       </c>
@@ -62055,13 +62055,13 @@
         <v>-6.063306549</v>
       </c>
       <c r="DR135">
-        <v>-0.23912</v>
+        <v>-0.27365</v>
       </c>
       <c r="DS135">
-        <v>1.06935</v>
+        <v>1.0801400000000001</v>
       </c>
       <c r="DT135">
-        <v>1.0666500000000001</v>
+        <v>1.0814299999999999</v>
       </c>
       <c r="DU135">
         <v>-0.524505</v>
@@ -62127,7 +62127,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="136" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1461</v>
       </c>
@@ -62492,13 +62492,13 @@
         <v>-5.2822835870000002</v>
       </c>
       <c r="DR136">
-        <v>-0.32267000000000001</v>
+        <v>-0.42773</v>
       </c>
       <c r="DS136">
-        <v>1.8385899999999999</v>
+        <v>1.87609</v>
       </c>
       <c r="DT136">
-        <v>1.84402</v>
+        <v>1.8729899999999999</v>
       </c>
       <c r="DU136">
         <v>-0.71621599999999996</v>
@@ -62564,7 +62564,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="137" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1470</v>
       </c>
@@ -62929,13 +62929,13 @@
         <v>-3.3294329390000001</v>
       </c>
       <c r="DR137">
-        <v>-0.26068000000000002</v>
+        <v>-0.25668999999999997</v>
       </c>
       <c r="DS137">
-        <v>1.3564499999999999</v>
+        <v>1.0713999999999999</v>
       </c>
       <c r="DT137">
-        <v>1.4069499999999999</v>
+        <v>1.0712600000000001</v>
       </c>
       <c r="DU137">
         <v>-0.58200499999999999</v>
@@ -63001,7 +63001,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="138" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1480</v>
       </c>
@@ -63366,13 +63366,13 @@
         <v>-3.7516651159999999</v>
       </c>
       <c r="DR138">
-        <v>-0.36903000000000002</v>
+        <v>-0.26174999999999998</v>
       </c>
       <c r="DS138">
-        <v>1.4018299999999999</v>
+        <v>1.0891299999999999</v>
       </c>
       <c r="DT138">
-        <v>1.484</v>
+        <v>1.0889</v>
       </c>
       <c r="DU138">
         <v>-0.61499700000000002</v>
@@ -63438,7 +63438,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="139" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1490</v>
       </c>
@@ -63803,13 +63803,13 @@
         <v>-3.4489429500000002</v>
       </c>
       <c r="DR139">
-        <v>-0.27866999999999997</v>
+        <v>-0.28288000000000002</v>
       </c>
       <c r="DS139">
-        <v>1.04697</v>
+        <v>1.05968</v>
       </c>
       <c r="DT139">
-        <v>1.0587200000000001</v>
+        <v>1.05583</v>
       </c>
       <c r="DU139">
         <v>-0.40736699999999998</v>
@@ -63878,7 +63878,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="140" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1501</v>
       </c>
@@ -64243,13 +64243,13 @@
         <v>-5.4198308449999999</v>
       </c>
       <c r="DR140">
-        <v>-0.26898</v>
+        <v>-0.25546999999999997</v>
       </c>
       <c r="DS140">
-        <v>1.26518</v>
+        <v>1.3322099999999999</v>
       </c>
       <c r="DT140">
-        <v>1.2237199999999999</v>
+        <v>1.26569</v>
       </c>
       <c r="DU140">
         <v>-0.60367300000000002</v>
@@ -64315,7 +64315,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="141" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1510</v>
       </c>
@@ -64563,13 +64563,13 @@
         <v>-3.5133973520000001</v>
       </c>
       <c r="DR141">
-        <v>-4.2869999999999998E-2</v>
+        <v>-4.3549999999999998E-2</v>
       </c>
       <c r="DS141">
-        <v>-0.79339000000000004</v>
+        <v>-0.79086999999999996</v>
       </c>
       <c r="DT141">
-        <v>1.1484000000000001</v>
+        <v>1.14794</v>
       </c>
       <c r="DU141">
         <v>-0.40787200000000001</v>
@@ -64632,7 +64632,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="142" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1520</v>
       </c>
@@ -64883,13 +64883,13 @@
         <v>-5.0572602470000003</v>
       </c>
       <c r="DR142">
-        <v>-0.18839</v>
+        <v>-0.26238</v>
       </c>
       <c r="DS142">
-        <v>1.1255599999999999</v>
+        <v>1.0742400000000001</v>
       </c>
       <c r="DT142">
-        <v>1.0463800000000001</v>
+        <v>1.11974</v>
       </c>
       <c r="DU142">
         <v>-0.59177999999999997</v>
@@ -64955,7 +64955,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="143" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1530</v>
       </c>
@@ -65320,13 +65320,13 @@
         <v>-4.4055218030000001</v>
       </c>
       <c r="DR143">
-        <v>-0.27342</v>
+        <v>-0.25511</v>
       </c>
       <c r="DS143">
-        <v>1.0082800000000001</v>
+        <v>0.98479000000000005</v>
       </c>
       <c r="DT143">
-        <v>1.01677</v>
+        <v>1.00427</v>
       </c>
       <c r="DU143">
         <v>-0.63049699999999997</v>
@@ -65395,7 +65395,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="144" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1540</v>
       </c>
@@ -65760,13 +65760,13 @@
         <v>-4.3151372060000002</v>
       </c>
       <c r="DR144">
-        <v>-0.26923999999999998</v>
+        <v>-0.29276000000000002</v>
       </c>
       <c r="DS144">
-        <v>1.0696399999999999</v>
+        <v>1.0831299999999999</v>
       </c>
       <c r="DT144">
-        <v>1.0458000000000001</v>
+        <v>1.0734300000000001</v>
       </c>
       <c r="DU144">
         <v>-0.60631500000000005</v>
@@ -65835,7 +65835,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="145" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1550</v>
       </c>
@@ -66086,13 +66086,13 @@
         <v>-5.4846045669999999</v>
       </c>
       <c r="DR145">
-        <v>-0.36179</v>
+        <v>-0.42503999999999997</v>
       </c>
       <c r="DS145">
-        <v>1.8671</v>
+        <v>1.8669800000000001</v>
       </c>
       <c r="DT145">
-        <v>1.8586</v>
+        <v>1.89517</v>
       </c>
       <c r="DU145">
         <v>-0.73642799999999997</v>
@@ -66158,7 +66158,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="146" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1559</v>
       </c>
@@ -66523,13 +66523,13 @@
         <v>-5.3138943510000001</v>
       </c>
       <c r="DR146">
-        <v>-0.27287</v>
+        <v>-0.24567</v>
       </c>
       <c r="DS146">
-        <v>1.0763100000000001</v>
+        <v>1.11046</v>
       </c>
       <c r="DT146">
-        <v>1.06843</v>
+        <v>1.0654600000000001</v>
       </c>
       <c r="DU146">
         <v>-0.47431600000000002</v>
@@ -66595,7 +66595,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="147" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1568</v>
       </c>
@@ -66936,13 +66936,13 @@
         <v>-4.3166911590000003</v>
       </c>
       <c r="DR147">
-        <v>-1.797E-2</v>
+        <v>9.3659999999999993E-2</v>
       </c>
       <c r="DS147">
-        <v>-0.66103999999999996</v>
+        <v>-0.67689999999999995</v>
       </c>
       <c r="DT147">
-        <v>1.0114000000000001</v>
+        <v>1.00299</v>
       </c>
       <c r="DU147">
         <v>-0.29777999999999999</v>
@@ -67008,7 +67008,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="148" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1577</v>
       </c>
@@ -67373,13 +67373,13 @@
         <v>-4.7926103649999998</v>
       </c>
       <c r="DR148">
-        <v>-0.27048</v>
+        <v>-0.28221000000000002</v>
       </c>
       <c r="DS148">
-        <v>1.0893200000000001</v>
+        <v>1.11402</v>
       </c>
       <c r="DT148">
-        <v>1.0855900000000001</v>
+        <v>1.1137600000000001</v>
       </c>
       <c r="DU148">
         <v>-0.53919899999999998</v>
@@ -67445,7 +67445,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="149" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1586</v>
       </c>
@@ -67810,13 +67810,13 @@
         <v>-8.3711443219999992</v>
       </c>
       <c r="DR149">
-        <v>-0.35698999999999997</v>
+        <v>-0.41260999999999998</v>
       </c>
       <c r="DS149">
-        <v>1.8079099999999999</v>
+        <v>1.85585</v>
       </c>
       <c r="DT149">
-        <v>1.81721</v>
+        <v>1.8954899999999999</v>
       </c>
       <c r="DU149">
         <v>-0.81726200000000004</v>
@@ -67882,7 +67882,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="150" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1595</v>
       </c>
@@ -68247,13 +68247,13 @@
         <v>-5.3388959700000003</v>
       </c>
       <c r="DR150">
-        <v>-0.27193000000000001</v>
+        <v>-0.26078000000000001</v>
       </c>
       <c r="DS150">
-        <v>1.0930599999999999</v>
+        <v>1.11236</v>
       </c>
       <c r="DT150">
-        <v>1.0872599999999999</v>
+        <v>1.10656</v>
       </c>
       <c r="DU150">
         <v>-0.50168400000000002</v>
@@ -68319,7 +68319,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="151" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1604</v>
       </c>
@@ -68660,13 +68660,13 @@
         <v>-4.6383762449999999</v>
       </c>
       <c r="DR151">
-        <v>1.7760000000000001E-2</v>
+        <v>-4.7550000000000002E-2</v>
       </c>
       <c r="DS151">
-        <v>-0.68688000000000005</v>
+        <v>-0.65617999999999999</v>
       </c>
       <c r="DT151">
-        <v>0.94230999999999998</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="DU151">
         <v>-0.37001499999999998</v>
@@ -68732,7 +68732,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="152" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1616</v>
       </c>
@@ -68980,13 +68980,13 @@
         <v>-3.7339180139999999</v>
       </c>
       <c r="DR152">
-        <v>-5.3440000000000001E-2</v>
+        <v>-3.5729999999999998E-2</v>
       </c>
       <c r="DS152">
-        <v>-0.49293999999999999</v>
+        <v>-0.49270999999999998</v>
       </c>
       <c r="DT152">
-        <v>1.1738999999999999</v>
+        <v>1.1554899999999999</v>
       </c>
       <c r="DU152">
         <v>-0.34395300000000001</v>
@@ -69052,7 +69052,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="153" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1626</v>
       </c>
@@ -69300,13 +69300,13 @@
         <v>-4.2240195680000001</v>
       </c>
       <c r="DR153">
-        <v>6.8300000000000001E-3</v>
+        <v>-9.7400000000000004E-3</v>
       </c>
       <c r="DS153">
-        <v>-0.48093000000000002</v>
+        <v>-0.48779</v>
       </c>
       <c r="DT153">
-        <v>1.0824199999999999</v>
+        <v>1.1308800000000001</v>
       </c>
       <c r="DU153">
         <v>-0.29453299999999999</v>
@@ -69375,7 +69375,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="154" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1636</v>
       </c>
@@ -69740,13 +69740,13 @@
         <v>-3.111908825</v>
       </c>
       <c r="DR154">
-        <v>-0.26973000000000003</v>
+        <v>-0.27634999999999998</v>
       </c>
       <c r="DS154">
-        <v>1.06155</v>
+        <v>1.0472399999999999</v>
       </c>
       <c r="DT154">
-        <v>1.0608200000000001</v>
+        <v>1.0531699999999999</v>
       </c>
       <c r="DU154">
         <v>-0.37895699999999999</v>
@@ -69815,7 +69815,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="155" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1645</v>
       </c>
@@ -70063,13 +70063,13 @@
         <v>-3.9765170080000001</v>
       </c>
       <c r="DR155">
-        <v>-5.0520000000000002E-2</v>
+        <v>-2.443E-2</v>
       </c>
       <c r="DS155">
-        <v>-0.46261999999999998</v>
+        <v>-0.4929</v>
       </c>
       <c r="DT155">
-        <v>1.1408199999999999</v>
+        <v>1.1446499999999999</v>
       </c>
       <c r="DU155">
         <v>-0.32818399999999998</v>
@@ -70138,7 +70138,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="156" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1655</v>
       </c>
@@ -70389,13 +70389,13 @@
         <v>-5.1017156029999997</v>
       </c>
       <c r="DR156">
-        <v>-0.31669999999999998</v>
+        <v>-0.27789000000000003</v>
       </c>
       <c r="DS156">
-        <v>1.1424300000000001</v>
+        <v>1.1166499999999999</v>
       </c>
       <c r="DT156">
-        <v>1.1927000000000001</v>
+        <v>1.14568</v>
       </c>
       <c r="DU156">
         <v>-0.48050700000000002</v>
@@ -70464,7 +70464,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="157" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1664</v>
       </c>
@@ -70715,13 +70715,13 @@
         <v>-5.281821731</v>
       </c>
       <c r="DR157">
-        <v>-0.32031999999999999</v>
+        <v>-0.27199000000000001</v>
       </c>
       <c r="DS157">
-        <v>1.15343</v>
+        <v>1.1234</v>
       </c>
       <c r="DT157">
-        <v>1.19529</v>
+        <v>1.1584099999999999</v>
       </c>
       <c r="DU157">
         <v>-0.52441400000000005</v>
@@ -70784,7 +70784,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="158" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1673</v>
       </c>
@@ -71149,13 +71149,13 @@
         <v>-5.5375697270000002</v>
       </c>
       <c r="DR158">
-        <v>-0.26268999999999998</v>
+        <v>-0.22606000000000001</v>
       </c>
       <c r="DS158">
-        <v>1.06623</v>
+        <v>1.08491</v>
       </c>
       <c r="DT158">
-        <v>1.0857600000000001</v>
+        <v>1.0843400000000001</v>
       </c>
       <c r="DU158">
         <v>-0.49534400000000001</v>
@@ -71221,7 +71221,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="159" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1682</v>
       </c>
@@ -71562,13 +71562,13 @@
         <v>-4.2921201900000003</v>
       </c>
       <c r="DR159">
-        <v>-4.7099999999999998E-3</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="DS159">
-        <v>-0.61287000000000003</v>
+        <v>-0.68962000000000001</v>
       </c>
       <c r="DT159">
-        <v>1.07959</v>
+        <v>0.94321999999999995</v>
       </c>
       <c r="DU159">
         <v>-0.25318000000000002</v>
@@ -71631,7 +71631,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="160" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1693</v>
       </c>
@@ -71996,13 +71996,13 @@
         <v>-5.7275176710000002</v>
       </c>
       <c r="DR160">
-        <v>-0.33434000000000003</v>
+        <v>-0.29233999999999999</v>
       </c>
       <c r="DS160">
-        <v>1.3057399999999999</v>
+        <v>1.0531600000000001</v>
       </c>
       <c r="DT160">
-        <v>1.3211200000000001</v>
+        <v>1.0530900000000001</v>
       </c>
       <c r="DU160">
         <v>-0.47265200000000002</v>
@@ -72068,7 +72068,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="161" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1702</v>
       </c>
@@ -72433,13 +72433,13 @@
         <v>-5.4921726849999999</v>
       </c>
       <c r="DR161">
-        <v>-0.39873999999999998</v>
+        <v>-0.25895000000000001</v>
       </c>
       <c r="DS161">
-        <v>1.17177</v>
+        <v>1.0743400000000001</v>
       </c>
       <c r="DT161">
-        <v>1.15656</v>
+        <v>1.05047</v>
       </c>
       <c r="DU161">
         <v>-0.52152100000000001</v>
@@ -72505,7 +72505,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="162" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1709</v>
       </c>
@@ -72846,13 +72846,13 @@
         <v>-3.0984571399999998</v>
       </c>
       <c r="DR162">
-        <v>-2.051E-2</v>
+        <v>-6.3170000000000004E-2</v>
       </c>
       <c r="DS162">
-        <v>-0.75434999999999997</v>
+        <v>-0.81186999999999998</v>
       </c>
       <c r="DT162">
-        <v>1.07094</v>
+        <v>1.1065</v>
       </c>
       <c r="DU162">
         <v>-0.46426499999999998</v>
@@ -72921,7 +72921,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="163" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1719</v>
       </c>
@@ -73262,13 +73262,13 @@
         <v>-2.4396453039999999</v>
       </c>
       <c r="DR163">
-        <v>-2.9770000000000001E-2</v>
+        <v>-1.8610000000000002E-2</v>
       </c>
       <c r="DS163">
-        <v>-0.75405999999999995</v>
+        <v>-0.80635000000000001</v>
       </c>
       <c r="DT163">
-        <v>1.0972900000000001</v>
+        <v>1.1296900000000001</v>
       </c>
       <c r="DU163">
         <v>-0.35918800000000001</v>
@@ -73337,7 +73337,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="164" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1729</v>
       </c>
@@ -73702,13 +73702,13 @@
         <v>-5.2199662069999997</v>
       </c>
       <c r="DR164">
-        <v>-0.28183000000000002</v>
+        <v>-0.28921000000000002</v>
       </c>
       <c r="DS164">
-        <v>1.07298</v>
+        <v>1.09927</v>
       </c>
       <c r="DT164">
-        <v>1.08125</v>
+        <v>1.1052</v>
       </c>
       <c r="DU164">
         <v>-0.49602299999999999</v>
@@ -73777,7 +73777,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="165" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1739</v>
       </c>
@@ -74130,13 +74130,13 @@
         <v>-5.663769662</v>
       </c>
       <c r="DR165">
-        <v>-0.16136</v>
+        <v>-0.21188000000000001</v>
       </c>
       <c r="DS165">
-        <v>1.03945</v>
+        <v>1.06111</v>
       </c>
       <c r="DT165">
-        <v>1.0534300000000001</v>
+        <v>1.0605</v>
       </c>
       <c r="DU165">
         <v>-0.47824299999999997</v>
@@ -74199,7 +74199,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="166" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1748</v>
       </c>
@@ -74564,13 +74564,13 @@
         <v>-5.0941940880000001</v>
       </c>
       <c r="DR166">
-        <v>-0.26562999999999998</v>
+        <v>-0.28827000000000003</v>
       </c>
       <c r="DS166">
-        <v>1.08219</v>
+        <v>1.0827500000000001</v>
       </c>
       <c r="DT166">
-        <v>1.08371</v>
+        <v>1.0863499999999999</v>
       </c>
       <c r="DU166">
         <v>-0.43695000000000001</v>
@@ -74636,7 +74636,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="167" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1757</v>
       </c>
@@ -74977,13 +74977,13 @@
         <v>-2.6527284459999998</v>
       </c>
       <c r="DR167">
-        <v>-1.8319999999999999E-2</v>
+        <v>-1.439E-2</v>
       </c>
       <c r="DS167">
-        <v>-0.74866999999999995</v>
+        <v>-0.80086000000000002</v>
       </c>
       <c r="DT167">
-        <v>1.07691</v>
+        <v>1.12018</v>
       </c>
       <c r="DU167">
         <v>-0.31773000000000001</v>
@@ -75052,7 +75052,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="168" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1767</v>
       </c>
@@ -75417,13 +75417,13 @@
         <v>-3.9192356359999998</v>
       </c>
       <c r="DR168">
-        <v>-0.26351000000000002</v>
+        <v>-0.30476999999999999</v>
       </c>
       <c r="DS168">
-        <v>1.0420499999999999</v>
+        <v>1.03162</v>
       </c>
       <c r="DT168">
-        <v>1.04897</v>
+        <v>1.06687</v>
       </c>
       <c r="DU168">
         <v>-0.78669500000000003</v>
@@ -75492,7 +75492,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="169" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1777</v>
       </c>
@@ -75857,13 +75857,13 @@
         <v>-5.9893228199999999</v>
       </c>
       <c r="DR169">
-        <v>-0.23091</v>
+        <v>-0.16025</v>
       </c>
       <c r="DS169">
-        <v>1.01312</v>
+        <v>0.93713000000000002</v>
       </c>
       <c r="DT169">
-        <v>0.96235000000000004</v>
+        <v>0.97431000000000001</v>
       </c>
       <c r="DU169">
         <v>-0.34352700000000003</v>
@@ -75932,7 +75932,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="170" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1788</v>
       </c>
@@ -76297,13 +76297,13 @@
         <v>-7.2369946509999998</v>
       </c>
       <c r="DR170">
-        <v>-0.27030999999999999</v>
+        <v>-0.15090999999999999</v>
       </c>
       <c r="DS170">
-        <v>1.14157</v>
+        <v>1.01495</v>
       </c>
       <c r="DT170">
-        <v>1.1588000000000001</v>
+        <v>1.01589</v>
       </c>
       <c r="DU170">
         <v>-0.44227</v>
@@ -76372,7 +76372,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="171" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1799</v>
       </c>
@@ -76737,13 +76737,13 @@
         <v>-9.9846684769999996</v>
       </c>
       <c r="DR171">
-        <v>-0.22347</v>
+        <v>-0.27516000000000002</v>
       </c>
       <c r="DS171">
-        <v>1.0583400000000001</v>
+        <v>1.1163000000000001</v>
       </c>
       <c r="DT171">
-        <v>1.10544</v>
+        <v>1.1097699999999999</v>
       </c>
       <c r="DU171">
         <v>-0.58338599999999996</v>
@@ -76809,7 +76809,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="172" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1809</v>
       </c>
@@ -77174,13 +77174,13 @@
         <v>-3.8102502079999998</v>
       </c>
       <c r="DR172">
-        <v>-0.29470000000000002</v>
+        <v>-0.23718</v>
       </c>
       <c r="DS172">
-        <v>1.04</v>
+        <v>0.99226000000000003</v>
       </c>
       <c r="DT172">
-        <v>1.03982</v>
+        <v>0.99178999999999995</v>
       </c>
       <c r="DU172">
         <v>-0.481296</v>
@@ -77249,7 +77249,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="173" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1819</v>
       </c>
@@ -77614,13 +77614,13 @@
         <v>-5.9494710719999997</v>
       </c>
       <c r="DR173">
-        <v>-0.24684</v>
+        <v>-0.26216</v>
       </c>
       <c r="DS173">
-        <v>1.02213</v>
+        <v>1.02921</v>
       </c>
       <c r="DT173">
-        <v>1.02092</v>
+        <v>1.0286500000000001</v>
       </c>
       <c r="DU173">
         <v>-0.52563300000000002</v>
@@ -77689,7 +77689,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="174" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1830</v>
       </c>
@@ -78030,13 +78030,13 @@
         <v>-2.3109344319999998</v>
       </c>
       <c r="DR174">
-        <v>1.0829999999999999E-2</v>
+        <v>-1.3820000000000001E-2</v>
       </c>
       <c r="DS174">
-        <v>-0.45596999999999999</v>
+        <v>-0.48520999999999997</v>
       </c>
       <c r="DT174">
-        <v>1.10277</v>
+        <v>1.0832900000000001</v>
       </c>
       <c r="DU174">
         <v>-0.20521200000000001</v>
@@ -78105,7 +78105,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="175" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1840</v>
       </c>
@@ -78356,13 +78356,13 @@
         <v>-3.83693127</v>
       </c>
       <c r="DR175">
-        <v>-0.32745000000000002</v>
+        <v>-0.28824</v>
       </c>
       <c r="DS175">
-        <v>1.0845899999999999</v>
+        <v>1.0222500000000001</v>
       </c>
       <c r="DT175">
-        <v>1.4632099999999999</v>
+        <v>1.4202699999999999</v>
       </c>
       <c r="DU175">
         <v>-0.65551000000000004</v>
@@ -78428,7 +78428,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="176" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1849</v>
       </c>
@@ -78679,13 +78679,13 @@
         <v>-5.785978235</v>
       </c>
       <c r="DR176">
-        <v>-0.18604000000000001</v>
+        <v>-0.26469999999999999</v>
       </c>
       <c r="DS176">
-        <v>1.11328</v>
+        <v>1.0741400000000001</v>
       </c>
       <c r="DT176">
-        <v>1.01736</v>
+        <v>1.1288400000000001</v>
       </c>
       <c r="DU176">
         <v>-0.59500900000000001</v>
@@ -78748,7 +78748,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="177" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1858</v>
       </c>
@@ -78999,13 +78999,13 @@
         <v>-4.600489864</v>
       </c>
       <c r="DR177">
-        <v>-0.18079999999999999</v>
+        <v>-0.30258000000000002</v>
       </c>
       <c r="DS177">
-        <v>1.0787599999999999</v>
+        <v>1.0542400000000001</v>
       </c>
       <c r="DT177">
-        <v>0.96150999999999998</v>
+        <v>1.0914299999999999</v>
       </c>
       <c r="DU177">
         <v>-0.62612299999999999</v>
@@ -79068,7 +79068,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="178" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1867</v>
       </c>
@@ -79433,13 +79433,13 @@
         <v>-6.0395874320000003</v>
       </c>
       <c r="DR178">
-        <v>-0.34293000000000001</v>
+        <v>-0.40327000000000002</v>
       </c>
       <c r="DS178">
-        <v>1.81084</v>
+        <v>1.8781099999999999</v>
       </c>
       <c r="DT178">
-        <v>1.8085500000000001</v>
+        <v>1.8784099999999999</v>
       </c>
       <c r="DU178">
         <v>-0.65090400000000004</v>
@@ -79502,7 +79502,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="179" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1876</v>
       </c>
@@ -79867,13 +79867,13 @@
         <v>-4.8262283439999996</v>
       </c>
       <c r="DR179">
-        <v>-0.28347</v>
+        <v>-0.28724</v>
       </c>
       <c r="DS179">
-        <v>1.08727</v>
+        <v>1.11364</v>
       </c>
       <c r="DT179">
-        <v>1.08708</v>
+        <v>1.11511</v>
       </c>
       <c r="DU179">
         <v>-0.53081800000000001</v>
@@ -79939,7 +79939,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="180" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1885</v>
       </c>
@@ -80280,13 +80280,13 @@
         <v>-3.3864373259999998</v>
       </c>
       <c r="DR180">
-        <v>1.235E-2</v>
+        <v>1.525E-2</v>
       </c>
       <c r="DS180">
-        <v>-0.41158</v>
+        <v>-0.49181999999999998</v>
       </c>
       <c r="DT180">
-        <v>1.09606</v>
+        <v>1.11267</v>
       </c>
       <c r="DU180">
         <v>-0.212505</v>
@@ -80352,7 +80352,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="181" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1894</v>
       </c>
@@ -80603,13 +80603,13 @@
         <v>-4.2356078300000002</v>
       </c>
       <c r="DR181">
-        <v>-0.32171</v>
+        <v>-0.2555</v>
       </c>
       <c r="DS181">
-        <v>1.0560700000000001</v>
+        <v>1.0734999999999999</v>
       </c>
       <c r="DT181">
-        <v>1.1975</v>
+        <v>1.14788</v>
       </c>
       <c r="DU181">
         <v>-0.411134</v>
@@ -80678,7 +80678,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="182" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1904</v>
       </c>
@@ -80929,13 +80929,13 @@
         <v>-4.8386908340000003</v>
       </c>
       <c r="DR182">
-        <v>-0.35883999999999999</v>
+        <v>-0.28892000000000001</v>
       </c>
       <c r="DS182">
-        <v>1.1569400000000001</v>
+        <v>1.1206400000000001</v>
       </c>
       <c r="DT182">
-        <v>1.1858599999999999</v>
+        <v>1.12967</v>
       </c>
       <c r="DU182">
         <v>-0.57023999999999997</v>
@@ -81004,7 +81004,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="183" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1914</v>
       </c>
@@ -81255,13 +81255,13 @@
         <v>-5.3531885160000003</v>
       </c>
       <c r="DR183">
-        <v>-0.31805</v>
+        <v>-0.30790000000000001</v>
       </c>
       <c r="DS183">
-        <v>1.1546099999999999</v>
+        <v>1.12914</v>
       </c>
       <c r="DT183">
-        <v>1.17327</v>
+        <v>1.12351</v>
       </c>
       <c r="DU183">
         <v>-0.64314099999999996</v>
@@ -81330,7 +81330,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="184" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1925</v>
       </c>
@@ -81695,13 +81695,13 @@
         <v>-3.9822221359999999</v>
       </c>
       <c r="DR184">
-        <v>-0.28151999999999999</v>
+        <v>-0.25441000000000003</v>
       </c>
       <c r="DS184">
-        <v>1.0653999999999999</v>
+        <v>1.0656000000000001</v>
       </c>
       <c r="DT184">
-        <v>1.0534699999999999</v>
+        <v>1.06728</v>
       </c>
       <c r="DU184">
         <v>-0.460233</v>
@@ -81770,7 +81770,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="185" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1935</v>
       </c>
@@ -82111,13 +82111,13 @@
         <v>-2.458620679</v>
       </c>
       <c r="DR185">
-        <v>-0.11971999999999999</v>
+        <v>-2.7269999999999999E-2</v>
       </c>
       <c r="DS185">
-        <v>-0.47847000000000001</v>
+        <v>-0.52988999999999997</v>
       </c>
       <c r="DT185">
-        <v>1.1977800000000001</v>
+        <v>1.11571</v>
       </c>
       <c r="DU185">
         <v>-0.24068800000000001</v>
@@ -82186,7 +82186,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="186" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1946</v>
       </c>
@@ -82524,13 +82524,13 @@
         <v>-3.3150935210000001</v>
       </c>
       <c r="DR186">
-        <v>0.16550000000000001</v>
+        <v>-9.6299999999999997E-3</v>
       </c>
       <c r="DS186">
-        <v>-0.54515999999999998</v>
+        <v>-0.53347</v>
       </c>
       <c r="DT186">
-        <v>0.95409999999999995</v>
+        <v>1.0750299999999999</v>
       </c>
       <c r="DU186">
         <v>-0.24593300000000001</v>
@@ -82599,7 +82599,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="187" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1957</v>
       </c>
@@ -82964,13 +82964,13 @@
         <v>-7.187998168</v>
       </c>
       <c r="DR187">
-        <v>-0.28383000000000003</v>
+        <v>-0.17157</v>
       </c>
       <c r="DS187">
-        <v>0.94582999999999995</v>
+        <v>0.98784000000000005</v>
       </c>
       <c r="DT187">
-        <v>0.94857000000000002</v>
+        <v>0.91485000000000005</v>
       </c>
       <c r="DU187">
         <v>-0.557006</v>
@@ -83039,7 +83039,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="188" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1967</v>
       </c>
@@ -83404,13 +83404,13 @@
         <v>-5.0037246140000002</v>
       </c>
       <c r="DR188">
-        <v>-0.29599999999999999</v>
+        <v>-0.29458000000000001</v>
       </c>
       <c r="DS188">
-        <v>1.0787500000000001</v>
+        <v>1.1192</v>
       </c>
       <c r="DT188">
-        <v>1.0783100000000001</v>
+        <v>1.1192599999999999</v>
       </c>
       <c r="DU188">
         <v>-0.55498899999999995</v>
@@ -83476,7 +83476,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="189" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1976</v>
       </c>
@@ -83727,13 +83727,13 @@
         <v>-7.0812127419999999</v>
       </c>
       <c r="DR189">
-        <v>-0.41852</v>
+        <v>-0.28588000000000002</v>
       </c>
       <c r="DS189">
-        <v>1.25125</v>
+        <v>1.0922499999999999</v>
       </c>
       <c r="DT189">
-        <v>1.20492</v>
+        <v>1.1478699999999999</v>
       </c>
       <c r="DU189">
         <v>-0.56566000000000005</v>
@@ -83802,7 +83802,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="190" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1986</v>
       </c>
@@ -84167,13 +84167,13 @@
         <v>-3.7988142279999999</v>
       </c>
       <c r="DR190">
-        <v>-0.27809</v>
+        <v>-0.28716999999999998</v>
       </c>
       <c r="DS190">
-        <v>1.0820000000000001</v>
+        <v>1.10484</v>
       </c>
       <c r="DT190">
-        <v>1.06789</v>
+        <v>1.07559</v>
       </c>
       <c r="DU190">
         <v>-0.64822599999999997</v>
@@ -84242,7 +84242,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="191" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1996</v>
       </c>
@@ -84607,13 +84607,13 @@
         <v>-6.9389161399999999</v>
       </c>
       <c r="DR191">
-        <v>-0.12114</v>
+        <v>-8.7800000000000003E-2</v>
       </c>
       <c r="DS191">
-        <v>0.93849000000000005</v>
+        <v>0.86363000000000001</v>
       </c>
       <c r="DT191">
-        <v>0.97258</v>
+        <v>0.99672000000000005</v>
       </c>
       <c r="DU191">
         <v>-0.667381</v>
@@ -84682,7 +84682,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="192" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>2006</v>
       </c>
@@ -85047,13 +85047,13 @@
         <v>-5.0041799969999996</v>
       </c>
       <c r="DR192">
-        <v>-0.15520999999999999</v>
+        <v>-0.17454</v>
       </c>
       <c r="DS192">
-        <v>1.0019800000000001</v>
+        <v>1.04196</v>
       </c>
       <c r="DT192">
-        <v>1.15995</v>
+        <v>1.0886499999999999</v>
       </c>
       <c r="DU192">
         <v>-0.29167700000000002</v>
@@ -85116,7 +85116,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="193" spans="1:146" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>2015</v>
       </c>
@@ -85481,13 +85481,13 @@
         <v>-6.5821030279999997</v>
       </c>
       <c r="DR193">
-        <v>-0.26018000000000002</v>
+        <v>-0.20104</v>
       </c>
       <c r="DS193">
-        <v>1.002</v>
+        <v>0.98046999999999995</v>
       </c>
       <c r="DT193">
-        <v>0.99243999999999999</v>
+        <v>0.94815000000000005</v>
       </c>
       <c r="DU193">
         <v>-0.44838499999999998</v>
